--- a/information.xlsx
+++ b/information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Berlin-Берлин</t>
+          <t>TORG.UZ (Tashkent)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/v.berlin/</t>
+          <t>https://www.facebook.com/groups/TORG.UZ.TASHKENT/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Участники: 10 тыс.</t>
+          <t>Участники: 147 тыс.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Информационно-развлекательный форум для знакомства и общения берлинцев и гостей нашего города. Здесь можно интересно провести время в веселой компании, найти новых друзей, полезную информацию и хороший совет. Принять участие в совместных празднованиях, тематических встречах, походах и путешествиях.  Über die Gruppe Berlin.ru Wir sind einen Informativen Kommunikationsforum für unseren Berliner und Besucher-Gäste in der Hauptstadt. Hier können Sie einen schönen Spaß mit uns in der lustigen und interessanten Gesellschaften haben, neue Freunde und gute geschäftliche Bekannte zu finden, Reiseinformationen und Tipps. An gemeinsamen Kultur-Feiern, thematische Parties, Wanderungen und Reisen mit uns teilnehmen.</t>
+          <t>Уважаемые Пользователи. Добавляйте объявление о продаже своих б/у или новых вещей !!! В нашу бесплатную доску объявлений !!! Будем сотрудничать и грамотно определять стоимость и запрос !!! Добро пожаловать в группу TORG.UZ-TASHKENT !!! https://www.facebook.com/groups/TORG.UZ.TASHKENT/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,184 +490,184 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Берлин+Teltow-Fläming.Работа, жильё, услуги. Berlin+TF Jüterbog</t>
+          <t>Tashkent - Uzbekistan 🇺🇿</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/3123353514365483/</t>
+          <t>https://www.facebook.com/groups/tashkentuzbekistan/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Участники: 7 тыс.</t>
+          <t>Участники: 2,8 тыс.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Эта группа создана что бы бесплатно подавать объявления для помощи людям найти в Берлине работу, жильё или другие услуги которые им необходимы. Также фирмам найти себе хороших сотрудников или клиентов. Просьба относиться ко всем с уважением и помогать друг другу.</t>
+          <t>Tashkent, Uzbekistan's capital, is situated in the country's eastern foothills, near to the borders with Kazakhstan, Kyrgyzstan, and Tajikistan. It is the most major city in Central Asia, with a population of over two million people, including a sizable Russian minority. This group was formed to discuss all aspects of tourism in Tashkent, Uzbekistan. #Tashkent #Uzbekistan #Travel #World #Holiday #Facebook</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Публикаций в месяц: 3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Русскоговорящие 📣 Берлин, Потсдам, Бранденбург</t>
+          <t>Expats in Tashkent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/newgroup.berlin/</t>
+          <t>https://www.facebook.com/groups/1686966231483292/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Участники: 3,9 тыс.</t>
+          <t>Участники: 1,4 тыс.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Разместить свои объявления может каждый участник группы. Купля/продажа, поиск и предложения работы/жилья/услуг, мероприятия, встречи, общение. ________________________________________________________ 🔥БЕСПЛАТНЫЕ ОБЪЯВЛЕНИЯ🔥 Уважаемые друзья! Администрация группы имеет только одно пожелание 📣- Пожалуйста, пригласите кто сколько сможет друзей в нашу группу (по возможности и желанию☝️) Это в первую очередь нужно для увеличения количества заинтересованных людей вашими публикациями. ________________________________________________________ Примечание: за содержание объявлений ответственность несет рекламодатель. Администратор оставляет за собой право удалить объявление, если оно не соответствует правилам группы или в иных непредусмотренных случаях на усмотрение администратора. _________________________________________________________ Будем очень благодарны и признательны в помощи развития нашей группы. Всем приятного общения в группе и хороших продаж! С уважением, Администрация.</t>
+          <t>This group is for expats living in Uzbekistan, specifically in Tashkent. The aim is to help foreigners, inform them with events and fun activities, and also find a lots of new friends. so let's enjoy it and share happiness with others!</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Berlin Housing, Rooms, Apartments, Sublets</t>
+          <t>Водители Ташкента (DRIVERS.UZ) ‐ 273 тыс. участников</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/156793591673300/</t>
+          <t>https://www.facebook.com/groups/drivers.uzb/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Участники: 74 тыс.</t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Welcome to Alpaca's Berlin housing group! To join, click '+ Join group' and you will be approved shortly. Cool! What do I do now?: Go ahead and post! Our groups were created to make the process of finding a new home, tenant, or roommate just that bit easier. While there are no specific guidelines, we find that great pictures, a clear price, and a detailed description with dates and location often work best. Try to avoid adding external links! We also kindly ask members to be courteous and to avoid profane, defamatory, offensive, or violent language. AN IMPORTANT NOTE ABOUT FRAUD: Alpaca groups are meticulously combed for scammers. Suspected members will be removed without warning. Please note that Alpaca does not directly manage any properties or know all of our users personally. For that reason, we ask our members to be alert and take standard security precautions. Here are a few tips: 1) Verify any profiles that you interact with. Ask them questions, look at their friends lists, see if they’ve been tagged in posts and photos, and search the internet for their name and location. If you’re contacted by one of our admins or our page, do make sure they’re not fake profiles or pages before you engage. Email info@alpaca.casa if in doubt. 2) Never transfer significant amounts of money in advance. Agree to put down a deposit after you have visited the apartment and have signed a lease, and only pay the full price on the first day of renting. 3) For those moving to a new city and are unable to see the apartment in person, we still recommend an in-person visit to be on the safe side, or ask friends to help out. Finding a new home is important and should not be taken too lightly! At the very least, try to schedule a video conference. 4) Beware of people who want to send apartment keys in the mail. 5) Do not overshare sensitive information, e.g. sending a copy of your passport or ID. 6) Finally, please help us make this group a safer place by reporting any suspect behavior to info@alpaca.casa Happy renting!</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Russen in Berlin - Русские в Берлине</t>
+          <t>Tashkent developers :: Jobs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/russenberlin/</t>
+          <t>https://www.facebook.com/groups/tasdev.jobs/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Участники: 40 тыс.</t>
+          <t>Участники: 4,8 тыс.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Берлин всем привет! Наша группа для тех, кто живёт в Берлине и говорит на русском. Присоединяйтесь! Мероприятия в Берлине, новости в Берлине, недвижимость в Берлине, работа в Берлине, дети в Берлине и всё для них, вопросы интеграции в Берлине, помощь по Берлину, юридическая помощь в Берлине, социальные проекты в Берлине.</t>
+          <t>Работа в сфере Software Development и смежных областях. Разрешена публикация вакансий и резюме. ПОИСК СТАЖЁРОВ/СТАЖИРОВКИ - используйте тэг #tasdev_intern Руководство по написанию хорошего текста вакансии: https://www.facebook.com/groups/tasdev.jobs/permalink/1616321108422717/ Реклама, спам, флуд, оффтоп запрещены. рекламные посты удаляются вместе с авторами без предупреждений. Группа для общения разработчиков: https://www.facebook.com/groups/tasdev/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>20 публикаций в неделю</t>
+          <t>2 публикации в неделю</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>БЕРЛИН помогаем НАШИМ</t>
+          <t>Foreigners in Tashkent</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/3984448168437102/</t>
+          <t>https://www.facebook.com/groups/128470843985339/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Участники: 3,3 тыс.</t>
+          <t>Участники: 3,7 тыс.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ДЕЛИМСЯ полезной ИНФОРМАЦИЕЙ, НОВОСТЯМИ о жизни в БЕРЛИНЕ и ПРИГОРОДЕ. Одним соловом ПОМОГАЕМ НАШИМ</t>
+          <t>Foreigners in Tashkent is the place where you can find people from various places originally but currently living in Tashkent. Here people share their knowledge and experience about Tashkent, its places and people. Join our Telegram Group https://t.me/joinchat/dI7PjJ9NbKliYTY6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>10 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Berlin Apartments - Rent - Share &amp; Sell flats &amp; apartments in Berlin</t>
+          <t>Группа «Tashkent Retrospective. Старые фото Средней Азии и Туркестана»</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/I9179/</t>
+          <t>https://www.facebook.com/groups/179399492874859/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Участники: 31 тыс.</t>
+          <t>Участники: 16 тыс.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t xml:space="preserve">Группа «Tashkent Retrospective. Старые фото Центральной Азии и Туркестана».  В этой группе старые фотографии, иллюстрации, архивные видео записи от самих участников группы. Мы не ограничиваемся фотографиями Ташкента или Узбекистана. Публикуем фотографии со всего региона. Желательно при публикации указывать автора и источник фото. Также незабываем описать фотографию по мере возможности. Где снято, год съемки и т.д.  </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>5 публикаций в день</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Доска обявлений Берлин</t>
+          <t>Tashkent Chemical and Technological institute</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1691327001150700/</t>
+          <t>https://www.facebook.com/groups/264476070266575/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Участники: 8,4 тыс.</t>
+          <t>Участники: 68</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,184 +679,184 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Доска объявлений Berlin</t>
+          <t>Массажистки Ташкента</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1047900985253121/</t>
+          <t>https://www.facebook.com/groups/242315444225091/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Участники: 35 тыс.</t>
+          <t>Участники: 2,2 тыс.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Группа мастеров массажа из города Ташкента!</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Публикаций в месяц: 8</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>X-places (Tashkent)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/2211791557/</t>
+          <t>https://www.facebook.com/groups/xplaces/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Участники: 5,6 тыс.</t>
+          <t>Участники: 17 тыс.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Each day another history from Berlin that would be nice. The diary of Berlin:-)</t>
+          <t>Этих мест нет на развлекательной карте города. Открытые по сути, они защищены амулетом обыденности, дальней стенкой шкафа, промежуточной платформой ж/д вокзала и привычной реальностью. Здесь мы ими делимся. И нам нужно ваше участие! Однако, у группы есть свои правила и традиции: 1. Уважаем друг друга. Здесь не бьются, не спамят, говорят по делу и проходят мимо, если что-то не нравится. Материалов в группе много - можно всегда найти себе по душе. 2. Чтим конфиденциальность полученной информации, личных сведений и прав (включая право на изображение, где бы оно не было получено). Группа рада проявлению интереса со стороны масс-медиа, но убедительно просит о предварительном согласовании публикуемых материалов и изображений. 3. Каждый сам несёт ответственность за безопасность и правовую грамотность. Здесь не призывают к повторению. 4. Бережём хрупкую магию мест. Идеи об организованных мероприятиях, коммерческой деятельности и рекламе согласовываются с администраторами. Мы знаем, где читать афишу весёлых, кислых и прочих тусс. Приравнивается к оффтопу. 5. Руководство группы право, но не всегда. Что ж, бывает.. :) С предложениями о сотрудничестве обращаться к администраторам.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Speaking Jobs in Berlin, Germany</t>
+          <t>🙌 Массаж в Ташкенте🙌</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/957238694427799/</t>
+          <t>https://www.facebook.com/groups/MassageMansTashCity/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Участники: 70 тыс.</t>
+          <t>Участники: 7,6 тыс.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Post links to opportunities for English speaking jobs in Berlin here and opportunities to improve job skills. I also invite you to browse and posts jobs at my jobs board for expats in Germany: https://expatjobseeker.de/. And I invite you to check out online courses to improve your job skills at my online course search site https://elektev.com/ --------------------------- Note: as the group has gotten bigger, some people have also entered it with the aim of advertising scams/fake opportunities, so please report anything that you see suspicious. And thank you very much to those of you who have already been reporting such issues! Please be careful in particular with people asking you for a trial task before you “start the real job”, as they may just be trying to get you to work for them for free once and then you will never hear from them again/won’t get paid. Also, please respect those legitimate posts of other members in this group: we're all here either looking for or sharing job opportunities in Berlin and we should support each other's efforts to do. There will be no tolerance for offensive/demeaning remarks towards other people in this group. If you see anyone making fun of/disrespecting another member in this group, please report it. Thanks again for your contributions and support of this group.</t>
+          <t>Здравствуйте дамы и господа данная группа предназначена для поиска мастеров массажного искусства в городе Ташкент. Тут вы можете найти разных мастеров из разных районов города Ташкент! Реклама в данной группе на платной основе по всем вопросам обращаться в телеграмм к нашему боту: https://t.me//MMTCFbot</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8 публикаций в день</t>
+          <t>8 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Best Jobs Germany, Berlin</t>
+          <t>TORG.UZ (Tashkent)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/I1771/</t>
+          <t>https://www.facebook.com/groups/404567553030714/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Участники: 85 тыс.</t>
+          <t>Участники: 28 тыс.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Only JOBS -&gt; or BLOCK</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Берлин Жилье Berlin Housing Network Помогаем Нашим!</t>
+          <t>MDIS Tashkent</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/pn.germany.housing/</t>
+          <t>https://www.facebook.com/groups/mdistashkent/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Участники: 4,2 тыс.</t>
+          <t>Участники: 2,8 тыс.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Если Вы хотите сообщить о сборе средств пострадавшим, пишете статьи, делаете видео помогающие всем нам, то Вы можете публиковаться на у нас на сайте и делиться этим в наших группах: www.pomogaem.net ЛОКАЛЬНЫЕ ГРУППЫ Германия fb.com/groups/pomogaem.germany Берлин fb.com/groups/rotfront.berlin Жилье fb.com/groups/pn.germany.housing Знакомства и общение fb.com/groups/rotfront.singles.berlin Услуги fb.com/groups/pn.germany.service Иммиграция fb.com/groups/pomogaem.immigration.eu Учеба fb.com/groups/europe.study IT-порграммисты facebook.com/groups/pn.it.europe ПРАВИЛА - добавляйте хэштеги: #работа #страна #специальность - только позитивное общение - создаем и делимся добром - реклама и дублирование сообщений запрещены ПОДДЕРЖКА fb.com/groups/pomogaem.adminy ПОИСК ПО СООБЩЕНИЯМ СЕТИ pomogaem.net/infobaza SOS Если вам необходима экстренная помощь в беде за рубежом - пишите через pomogaem.net/sos НОВОСТИ fb.com/pomogaem САЙТ pomogaem.net ___________________________________ Поддерживается Yuriev.TV Expeditions - агентство экстремальных спортивных путешествий и экспедиций по неисследованным территориям в Мексике, США и Канаде www.fb.com/yuriev.tv</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Русский Берлин</t>
+          <t>RABOTA V TASHKENTE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/109570219429692/</t>
+          <t>https://www.facebook.com/groups/976127155820868/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Участники: 9,2 тыс.</t>
+          <t>Участники: 21 тыс.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Группа создана для берлинцев . Здесь можем поделится своими впечатлениями и актуальной информацией , как нам живётся в Берлине</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2 публикации в неделю</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Erasmus Berlin 2021/2022</t>
+          <t>РАБОТА - ТАШКЕНТ - ISH - ТOSHKENT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/ErasmusBerlin.org/</t>
+          <t>https://www.facebook.com/groups/191361055627904/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Участники: 11 тыс.</t>
+          <t>Участники: 16 тыс.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Erasmus Berlin 2021/2022 Welcome to Erasmus Berlin Facebook group!!</t>
+          <t xml:space="preserve">Обьявления по работе - публикации бесплатны. Всегда! </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,130 +868,130 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Student- and 1 room apartments in Berlin</t>
+          <t>UZBEK  STATE WORLD LANGUAGES UNIVERSITY (students)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/studentapartment/</t>
+          <t>https://www.facebook.com/groups/UzSWLUstudents/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Участники: 11 тыс.</t>
+          <t>Участники: 5,3 тыс.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Are you looking for a student apartment or do you have one for rent? Then we look forward to your entries.</t>
+          <t>Jahon tillari universitetining yangi binosi qurib bitirildi 31. 08. 2015 16:11 2446 A- A+ Toshkentda O'zbekiston davlat jahon tillari universitetining yangi o'quv-ma'muriy binosi qurib bitirildi. 1news.uz saytida ushbu binoning suratlari chop etildi. Aytilishicha, binoda 2 200 talaba ta'lim oladi. Bino yaqinida zamonaviy sport kompleksi, 400 kishilik oshxona va xorijiy mutaxassislar uchun mehmonxona qad ko'tardi. Talabalar shu o'quv yilidan boshlab ushbu binoda ta'lim ola boshlaydi. Teglar: qurilish, Jahon tillari universiteti</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Публикаций в год: 8</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>👑❤ Berlin_برلين ❤👑</t>
+          <t>Работа в Ташкенте всем!</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/228582228920068/</t>
+          <t>https://www.facebook.com/groups/worktashkent/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Участники: 14 тыс.</t>
+          <t>Участники: 20 тыс.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5 публикаций в неделю</t>
+          <t>УСПЕХА И ПРОЦВЕТАНИЯ ВСЕМ!</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Объявления в Берлине. Работа в Берлине. 1Berlin.ru</t>
+          <t>Real estate in Tashkent (Недвижимость в Ташкенте) Купля, продажа, аренда</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1berlin.ru/</t>
+          <t>https://www.facebook.com/groups/1377155015916831/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Участники: 9,4 тыс.</t>
+          <t>Участники: 4,7 тыс.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Вакансии и поиск работы в Берлине, знакомства и услуги, новые и бу вещи, недвижимость и многое другое. Приветствуем Вас в нашей группе сайта 1Berlin.ru</t>
+          <t xml:space="preserve">Добавляйте свои объявления по купле-продажи,аренды квартир, домов,участков и объектов недвижимости в Ташкенте </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WG-Zimmer und Wohnungen Berlin gesucht</t>
+          <t>УСЛУГИ ТАШКЕНТ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/254090736420540/</t>
+          <t>https://www.facebook.com/groups/631396497331869/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Участники: 141 тыс.</t>
+          <t>Участники: 2,2 тыс.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bei uns könnt ihr WG-Zimmer und Wohnungen in Berlin anbieten bzw. suchen! Spam oder Beiträge die nichts mit der WG-Suche zu tun haben werden ohne Ankündigung gelöscht.</t>
+          <t>Присоединяйтесь в группу �� � Здесь вы найдете различных мастеров �� � Бесплатная подача объявления о ваших услугах � � Продажа в рекламные дни � Добавляйтесь � http://t.me/uslugitashkent</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ГЕРМАНИЯ Берлин Гамбург Мюнхен Кёльн Франкфурт Дюссельдорф Штутгарт ...</t>
+          <t>Работа в Ташкенте</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/germany2024/</t>
+          <t>https://www.facebook.com/groups/980733635681099/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Участники: 15 тыс.</t>
+          <t>Участники: 14 тыс.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 🇩🇪 ВСЕ ПУБЛИКАЦИИ В ГРУППЕ БЕСПЛАТНЫЕ. По вопросам рекламы в группе обращайтесь на страницу: facebook.com/reklama.v.gruppe —————————————————</t>
+          <t>Здравствуйте, уважаемые работодатели! Рады приветствовать вас на странице города в Фейсбуке по поиску работы и персонала "Работа в Ташкенте". О размещении: Вакансию необходимо предложить на стене сообщества. Вакансия должна отражать всю суть работы, а именно: Название компании: Требуется: Требования: График и время работы: Адрес: Заработная плата: Телефон: Желательно приложить к вакансии качественную тематическую картинку Мы не принимаем вакансии, связанные с сетевым заработком, финансовыми пирамидами и прочими похожими (и не похожими на ваш взгляд) методами заработка. Запрещено также: реклама внутри вакансий, размещение вакансий интимного характера .Обьявления размещаются на платной основе.Стоимость_50000 сум.По вопросам размещения _пишите на почту_ tsolak545@yandex.ru</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1003,670 +1003,670 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Germany (Deutschland) Help Desk</t>
+          <t>tashkent</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/planforgermany/</t>
+          <t>https://www.facebook.com/groups/369941029861610/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Участники: 55 тыс.</t>
+          <t>Участники: 376</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hi.. I saw there are a lot of groups on Facebook that provide help to students of their country (like group for Indians, Srilankans, etc etc..) but no such that provide collective information for the international students (from anywhere in the world). So, I decide to create a group for every international students and from that u can get information about 1. Study in Germany 2. Life in Germany 3. Places to visit 4. Eating Options 5. Where to shop 6. To-Let services (for Apartment) 7. Help you to make New Friends 8. Learning German Language in very short time 9. Job Scenario in Germany 10. Work Permit / Blue Card / Citizenship 11. Parties and Night Life</t>
+          <t>X-files Востфака. Ориенталисты всех стран! Поститесь здесь пока мы вас помним!</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3 публикации в неделю</t>
+          <t>2 публикации в неделю</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>New in Berlin</t>
+          <t>Работа в Ташкенте(Узбекистан) вакансии на сегодняшний день...</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/698078193601815/</t>
+          <t>https://www.facebook.com/groups/1064413836928080/</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Участники: 9,4 тыс.</t>
+          <t>Участники: 27 тыс.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Welcome to Berlin! We are "New in Berlin" and are looking for nice and fun people to hang out, meet for drinks, party, have a coffee, go bowling, intercambios, shopping, rollerblading, etc. Everybody is welcome who wants to join the community! -------------------------------------------------------------- Herzlich Willkommen in Berlin! Wir sind "Neu in Berlin" und wir sind auf der Suche nach Leuten zum abhängen, was Trinken gehen, Party machen, Kaffee trinken, Bowling, Shopping, Rollerblading, usw. Jeder ist willkommen, der mitmachen will bei unserer Community! Verwendet das Forum, um euch zu treffen, Erfahrungen auszutauschen, Fragen zu stellen (Wohnen, Sprachkurse, Restaurants, etc.) und Spaß zu haben.</t>
+          <t>Работа в Ташкенте и Узбекистане, свежие вакансии на сегодня... Удобный поиск работы и актуальная база вакансий и резюме от прямых работодателей, кадровых агентств и соискателей. Помогаем трудоустроиться! 1. В группе ЗАПРЕЩЕНО: 1.1. Осуществлять публикации не соответствующие тематике группы, т.е. поиску работы и поиску персонала), НАПРИМЕР: посты о продаже недвижимости, услуг. 1.2. переходить на личности и оскорблять других участников группы; 1.3. публиковать контент, содержащий информацию провокационного и запрещенного характера; 1.4. размещение прямой рекламы и ссылки других групп, страниц. 1.5. публикация постов, идентичных по содержанию более 1 раза. 1.6. Размещать вакансии в сфере СЕТЕВОГО МАРКЕТИНГА! 2. В группе РАЗРЕШЕНО: 2.1. Вежливое обращение к участникам группы; 2.2. Расширение численности группы, путем добавления друзей и знакомых; 2.3. Распространение информации о наличии вакансий и резюме путем лайков и репостов. 2.4. Подача жалобы на пост, содержащий запрещенную правилами группы информацию в личные сообщения к администратору группы 2.5. Размещать публикации информационного характера и ссылка на нововведения в законодательстве о труде. Для получения возможности: - размещения более 3-х объявлений - получение возможности доп. поднятий - закрепления объявления в топике группы - брендировании обложки/шапки - прямой рекламы и ссылки других групп, страниц. Обращайтесь к администрации группы. Просим вас соблюдать правила группы! В случае нарушения вышеуказанных правил, администратор группы оставляет за собой право удалить пост и заблокировать пользователя без объяснения причины.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Публикаций в год: 4</t>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Room Mate and Flat Finder Berlin</t>
+          <t>TASHKENT CITY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/roommateflatfinderberlin/</t>
+          <t>https://www.facebook.com/groups/2097006853915574/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Участники: 4,6 тыс.</t>
+          <t>Участники: 1,1 тыс.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>English (German Below) Room Mate and Flat Finder is a community where you can find or offer accommodation in several cities around the world, why are we different than others? Because our staff is working 24/7 to avoid scams and help you to have a safe experience. In our Berlin group you can find or offer your rooms, in this group other topics than housing are not allowed. If you see some scams or suspicious publications please contact our staff. ----------------------------------------------------------- German Room Mate and Flat Finder ist eine community, in der du in mehreren Städten auf der ganzen Welt eine Unterkunft finden oder anbieten kannst. Warum unterscheiden wir uns von anderen? Weil unsere Mitarbeiter 24/7 arbeiten, um Betrug zu vermeiden und dir helfen, eine sichere Erfahrung zu machen. In unserer Berliner Gruppe kannst du dein Zimmer finden oder anbieten, in dieser Gruppe sind andere Themen als Housing nicht erlaubt. Wenn du Betrüger oder verdächtige Veröffentlichungen siehst, kontaktiere bitte unsere Mitarbeiter. Room Mate and Flat Finder ist eine community, in der du in mehreren Städten auf der ganzen Welt eine Unterkunft finden oder anbieten kannst. Warum unterscheiden wir uns von anderen? Weil unsere Mitarbeiter 24/7 arbeiten, um Betrug zu vermeiden und dir helfen, eine sichere Erfahrung zu machen. In unserer Berliner Gruppe kannst du dein Zimmer finden oder anbieten, in dieser Gruppe sind andere Themen als Housing nicht erlaubt. Wenn du Betrüger oder verdächtige Veröffentlichungen siehst, kontaktiere bitte unsere Mitarbeiter.</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2 публикации в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Berlin 2023 (Money Heist spinoff)</t>
+          <t>Знакомства Ташкент</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/3116283665257029/</t>
+          <t>https://www.facebook.com/groups/1183138595489835/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Участники: 47 тыс.</t>
+          <t>Участники: 3 тыс.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>La Casa De Papel / Money Heist might be coming to an end, but its story is set to continue through one of its most popular characters -- Berlin. The character played by Spanish actor Pedro Alonso is getting his own spin-off that will arrive on Netflix in 2023.</t>
+          <t>Здесь можно Искать сваю сваю сюдьбу. Канал телеграмм https://t.me/znakomsstvoo Групп тг https://t.me/znakomsstvooo</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t>9 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BERLIN 🇩🇪 - Rent a House, Villa, Apartment, Flat, Condo, Studio, Room</t>
+          <t>Врачи Ташкента</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/370555026719076/</t>
+          <t>https://www.facebook.com/groups/vrachitashkenta/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Участники: 15 тыс.</t>
+          <t>Участники: 129 тыс.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Find your next home on facebook. ✓ Renters ✓ Agents ✓ Landlords</t>
+          <t>Врачи Ташкента - это группа для поиска нужных, грамотных и компетентных специалистов- врачей разных профилей в Ташкенте и не только. В Группе также проводится просветительская и информативная деятельность. ВНИМАНИЕ! Рекомендации, полученные в группе нельзя расценивать как назначения. Вся информация носит только рекомендательный характер и предназначена только для повышения грамотности. Это НЕ руководство к действию. Давайте сохранять доброжелательную атмосферу в группе, СОБЛЮДАТЬ ПРАВИЛА ГРУППЫ и Проявлять ВЗАИМОУВАЖЕНИЕ! ПРАВИЛА ГРУППЫ НЕОБХОДИМО ПРОЧИТАТЬ сразу ПОСЛЕ ВСТУПЛЕНИЯ в группу, по этой ссылке: https://www.facebook.com/groups/vrachitashkenta/permalink/1432629326793411/ РЕКОМЕНДУЕМ ПОДПИСАТЬСЯ: НАША СТРАНИЦА НА ФБ, где вы можете найти много полезного для себя: https://www.facebook.com/VrachiTashInternational/ НАШ КАНАЛ В ТЕЛЕГРАММ: https://t.me/VrachiTashkenta_Telegram Админы и Модераторы: Dildora Sekler (к.м.н., вирусолог, специалист по молекулярно-генетическим исследованиям) Азизахон Ходжаева (к.м.н., врач-инфекционист, гепатолог, иммунолог), Лидия Гутникова (врач-невролог, терапевт, закончила резидентуру США) Николай Давис (врач- инфекционист-паразитолог. Резидентура США) Абдурахим Тойчиев (к.м.н. врач- инфекционист- паразитолог, гастроэнтеролог)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Berlin Events</t>
+          <t>Tashkent State University of Economics</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/256206621056473/</t>
+          <t>https://www.facebook.com/groups/tsue.uz/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Участники: 13 тыс.</t>
+          <t>Участники: 4,2 тыс.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Toshkent davlat iqtisodiyot universitetining rasmiy sahifasi www.tsue.uz</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>2 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INDIAN STUDENTS STUDYING IN GERMANY (DEUTSCHLAND)</t>
+          <t>АРЕНДА/ПРОДАЖА/КВАРТИР/ТАШКЕНТ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/indianstudentsstudyingingermany/</t>
+          <t>https://www.facebook.com/groups/238576114433292/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Участники: 35 тыс.</t>
+          <t>Участники: 1,1 тыс.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">-&gt; PLEASE READ CAREFULLY BEFORE YOU SEND REQUEST TO JOIN </t>
+          <t xml:space="preserve">Поиск квартир в аренду, продажу, сдача в аренду, продажа квартир, домов, коммерческой недвижимости и тд. </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5 публикаций в неделю</t>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Berlin Student Apartments</t>
+          <t>Мебель на заказ в Ташкенте</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1808279039408387/</t>
+          <t>https://www.facebook.com/groups/mebeluzbekistan/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Участники: 6,8 тыс.</t>
+          <t>Участники: 508</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Help students in Berlin finding their perfect accommodation.</t>
+          <t>https://t.me/mebelnazakazvtashkente1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5 публикаций в неделю</t>
+          <t>Публикаций в месяц: 7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Apartments BERLIN - INDIANS</t>
+          <t>Недвижимость в ташкенте (без посредников)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1535896693400873/</t>
+          <t>https://www.facebook.com/groups/196099460800069/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Участники: 13 тыс.</t>
+          <t>Участники: 21 тыс.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Only for Apartments in BERLIN. This is to help and assist people to find, post and share accommodation in Berlin. If you have any doubts about apartment scams then please ask us we will surely check and verify for you to make sure that you do not get trapped ending up losing your hard earned money. NOTE: Please do not post or comment with the google links for apartments. You will be kindly removed if done so. Thank you for your kind cooperation to prioritize greater good! STRICTLY NO ADS AND PROMOTIONS!</t>
+          <t>Продажа, покупка, обмен, сдача в аренду, без посредников. И любая информация по недвижимости в ташкенте.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3 публикации в неделю</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Indian Students in Germany</t>
+          <t>IELTS in Tashkent, Uzbekistan.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/www.unitutor.de/</t>
+          <t>https://www.facebook.com/groups/1662139257404843/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Участники: 76 тыс.</t>
+          <t>Участники: 685</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Study in Germany Indian Students in Germany German Learning German Courses Studienkolleg --&gt; Rheinland Privatschule www.unitutor.de Rheinland Privatschule is the most popular German language school for studying in Germany. We are located in western Germany (Duisburg, Essen, Dortmund, Düsseldorf). We offer German language courses, telc-exams, Studienkolleg and many more services.</t>
+          <t>Hi. You are welcome to share with your ideas and thoughts related to the IELTS exam. Good luck with your exams and get 9 out of 9.:-)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7 публикаций в день</t>
+          <t>3 публикации в неделю</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PSA Berlin  (Official ©™)</t>
+          <t>Аренда квартир в Ташкенте</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/psaberlin/</t>
+          <t>https://www.facebook.com/groups/1634005426616533/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Участники: 5,5 тыс.</t>
+          <t>Участники: 9,2 тыс.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Students &amp; Professionals from Pakistan who are going to be in Berlin/Brandenburg region are invited to join this group. General Rules for the group (Pakistanis in Berlin) 1. There will be at least two official admins at a time which will be replaced by voting of the group member every 2 years. 2. No political parties should be advertised. 3. No adverts should be repeated within 4 week or else will be deleted 4. Yearly at least one Student / Professional event will be organized. 5. For instant queries join our WhatsApp group. To join simply send an admin a PM with your name and WhatsApp no. Please follow the rules to have friendly and fruitful group discussions for all of us. Thank you for your kind understanding. For any further understanding or to be the part of the team feel free to contact any admins/moderators.</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Au-pair Berlin</t>
+          <t>Водители Ташкента  #The First</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1464400030499105/</t>
+          <t>https://www.facebook.com/groups/547143238651249/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Участники: 6,2 тыс.</t>
+          <t>Участники: 55 тыс.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3 публикации в неделю</t>
+          <t>Водители, будьте на дороге бдительны и внимательны! #Uyda Qoling! #Оставайтесь Дома!</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IT Jobs in Berlin</t>
+          <t>Объявления в Ташкенте</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/ITJobsBerlin/</t>
+          <t>https://www.facebook.com/groups/uztorg/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Участники: 5,7 тыс.</t>
+          <t>Участники: 60 тыс.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10 публикаций в неделю</t>
+          <t>Объявления частных лиц и организаций Ташкента, с ценами, фото и контактной информацией. Вступай в группу чтобы не потерять.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aklat.de | Berlin - أكلات برلين</t>
+          <t>Realty Tashkent</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/aklat.berlin/</t>
+          <t>https://www.facebook.com/groups/RealtyTashkent/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Участники: 2,3 тыс.</t>
+          <t>Участники: 13 тыс.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3 публикации в неделю</t>
+          <t>Realty Tashkent Недвижимость в Ташкенте</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bharat in Germany!</t>
+          <t>Аренда квартир в Ташкенте</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/bharatingermany/</t>
+          <t>https://www.facebook.com/groups/ardom35/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Участники: 53 тыс.</t>
+          <t>Участники: 1 тыс.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>This is the official group of the "Bharat in Germany!" Community. 🇩🇪BiG Academy: https://academy.bharatingermany.com 🇩🇪German Language course: https://bharatingermany.com/german 🇩🇪Blocked Account: https://bharatingermany.com/expatrio 🇩🇪Free Current Account: https://bharatingermany.com/n26 🇩🇪Money Transfer: https://www.bharatingermany.com/instarem</t>
+          <t>«Аренда квартир в Ташкенте» - это бесплатное объявление аренда недвижимостью только по Ташкенту. @ ПРАВИЛА ГРУППЫ @: В группе категорически запрещено: 1. Оскорбление участников 2. Использование ненормативной лексики 3. Разжигание межнациональной и религиозной розни 4. Публикация коммерческой рекламы, ссылки на другие группы 5. А также публикация материалов, содержащих эротику и порнографию! • Соблюдайте правила элементарной вежливости. Все комментарии, содержащие оскорбления в любой форме будут безжалостно удаляться. Судьба нарушителей – «Черный список»!!! Канал в Telegram Аренда: https://t.me/dom_35</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>6 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Berlin Apartments &amp; Rooms for Rent</t>
+          <t>Tashkent developers</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/307681233184179/</t>
+          <t>https://www.facebook.com/groups/tasdev/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Участники: 54 тыс.</t>
+          <t>Участники: 1,4 тыс.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Группа для профессионального общения программистов и работников сферы IT Ташкента. Дружеская атмосфера, обмен опытом, взаимопомощь по мере возможностей. Реклама, спам и оффтоп запрещены. ----- ВАКАНСИИ ----- ПОЖАЛУЙСТА, не размещайте вакансии в этой группе. Специально для вакансий в Software Development и смежных областях была создана группа tasdev.jobs: https://www.facebook.com/groups/tasdev.jobs/ ----- ДОКЛАДЫ ----- У нас есть возможность и желание организовывать оффлайн-мероприятия, доклады и воркшопы. Если ты можешь прочитать доклад на интересующую тебя тему, напиши об этом в группе или в личные сообщения администрации. Обязательно найдутся другие люди, которые с радостью послушают.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Публикаций в год: 8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Berlin Apartments/Rooms/Homes for Rent/Sale</t>
+          <t>Квартиры в Ташкенте</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/573217653125011/</t>
+          <t>https://www.facebook.com/groups/281140502050492/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Участники: 30 тыс.</t>
+          <t>Участники: 32 тыс.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Добавляйте свои объявления о купле-продаже, аренде квартир в городе Ташкенте и Ташкентской области. ОБЯЗАТЕЛЬНО УКАЗЫВАТЬ ЦЕНЫ И КОНТАКТЫ !!! Оставляйте комментарии, отзывы, для помощи других участников. Участникам необходимо оставлять контакты (телефоны, E-mail, "написать в личное сообщение") для дополнительной информации, предполагаемую цену продажи/аренды, указать собственника недвижимости. НЕ БОЛЕЕ 3х объявлений! РЕКЛАМА риэлторских услуг - БЛОКИРУЕТСЯ и участник УДАЛЯЕТСЯ При изменении условий/продажи/отмены, просим участников своевременно изменять/удалять свои объявления. Администрация группы не несет ответственность за достоверную и полную информацию, предоставляемую участником. Жалобы и претензии на размещенную участниками объявления, можете отметить в правом верхнем углу поста!  Более 3 жалоб на участника/объявление, рассматривается дальнейшее участие в группе нарушителя. Будьте взаимно вежливы!</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>2 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Apartments in Berlin And more</t>
+          <t>Казахи Ташкента</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/806530413206264/</t>
+          <t>https://www.facebook.com/groups/418182328355358/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Участники: 11 тыс.</t>
+          <t>Участники: 2 тыс.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Selling &amp; buying &amp; renting apartments and everything else</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jobs In Germany Berlin</t>
+          <t>ISH BOR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/2305981309412322/</t>
+          <t>https://www.facebook.com/groups/223144782158976/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Участники: 3,3 тыс.</t>
+          <t>Участники: 3,9 тыс.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">This group only for the Employer &amp; Employee Who belonging from all type of industry you share in this group job opportunity for the fresher &amp; experience holders And also all are discuss regarding university &amp; top institute of hotel management concerns.  </t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Berlin Expats</t>
+          <t>Недвижимость в ТАШКЕНТЕ )))</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1420767754835698/</t>
+          <t>https://www.facebook.com/groups/777362509046123/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Участники: 6,4 тыс.</t>
+          <t>Участники: 558</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Это группа создана для продажи или аренды квартир и домов.Приглашайте друзей чем больше нас тем больше информации в группе.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>What's up - Berlin?</t>
+          <t>Tashkent State Dental Institute</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/285175084937677/</t>
+          <t>https://www.facebook.com/groups/tsdi.official/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Участники: 1,2 тыс.</t>
+          <t>Участники: 4,5 тыс.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">What's Up - Berlin? Let us know What's Up in Berlin. In Deutsch - English - dansk - etc. etc. </t>
+          <t>Официальная страница Ташкентского государственного стоматологического института. Official page of Tashkent state dental institute. www.tdsi.uz</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6 публикаций в день</t>
+          <t>2 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>International Friends Berlin</t>
+          <t>✔ Zor.uz (TashkenT)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1486035424980463/</t>
+          <t>https://www.facebook.com/groups/534482063410021/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Участники: 33 тыс.</t>
+          <t>Участники: 1 тыс.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Welcome to International Friends Berlin. Great that you joined the group! Please feel free to tell us something about you in a first post :) What's the background of this group: Questions about Berlin, how to get along, finding support, getting to know folks here and having a good time. GROUP RULES - please read before posting/commenting: * forum language English * no housing + job posts * no dating posts/comments/messages to group members (I encourage those affected to send me screenshots so I can check them &gt; kick/ban from the group is a possible consequence!) * no advertising or self PR * surveys only for studies, not for companies * no random videos or pictures * only free or donation based events * no selling posts (give away for free is okay) * this group is not a platform for religious or political topics, propaganda or anti-semitic comments of any sort</t>
+          <t xml:space="preserve">продажа покупка реклама объявления </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Erasmus Berlin</t>
+          <t>Ремонт квартир в Ташкенте</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlin1314/</t>
+          <t>https://www.facebook.com/groups/2003812596511019/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Участники: 5,9 тыс.</t>
+          <t>Участники: 2,3 тыс.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>This group has been created to share information about erasmus, activities, requirements... If you want to advertise any kind of product/service please contact with the admin first, or it will be removed. JUST TALK IN ENGLISH PLEASE ;) For business enquiries contact by PM</t>
+          <t>Ремонта квартиры «под ключ» - это общепринятый термин, который означает выполнение комплекса капитальных ремонтно-строительных работ, включающих замену оконных и дверных конструкций, систем отопления, канализации и водоснабжения, укладку нового напольного покрытия, оформление потолка, поклейку обоев или покраску стен. Также под этим термином понимается выполнение отделочных, сантехнических и электромонтажных работ, а в конце – чистовая уборка и вывоз строительного мусора.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Algerische Gemeinschaft in Berlin, La communauté Algérienne à Berlin</t>
+          <t>Недвижимость Ташкент</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/663592683653750/</t>
+          <t>https://www.facebook.com/groups/508795089272034/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Участники: 9,2 тыс.</t>
+          <t>Участники: 4,9 тыс.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bienvenue sur la page de la Communauté Algérienne à Berlin. Ce groupe a pour objectif de regrouper les algérien(ne)s et ami(e)s de l'Algérie vivant à Berlin afin de se connaître, de s'entraider et de participer au rayonnement de la communauté et de la culture Algérienne en Allemagne. Tout ceci dans une atmosphère de convivialité et de bienveillance. ►► Important : En acceptant d'être membre de notre groupe, vous acceptez également le présent règlement. Il est nécessaire au respect de chacun et à la bonne marche de ce lieu d'échanges. En particulier, notre politique de modération de contenu est assez stricte. Elle est expliquée ci-dessous. Prière de lire et de suivre ces lignes directrices afin de préserver la belle dynamique de cette communauté. A noter que d’autres groupes pour Algériens en Allemagne existent sur facebook. ►Langues de travail: A vous de décider dans quelle(s) langue(s) vous voulez vous exprimer. Pour une compréhension plus large, nous recommandons l'Algérien, le Français ou l'Allemand. ►Ce que nous publions Si vous voulez rencontrer des algériens à Berlin et échanger avec eux, mrahba bikoum! Nous encourageons les types de publications suivants: - Introduction / Présentation des nouveaux membres - Questions pour la communauté, demande d'aide - Évènements culturels d’intérêt pour la communauté - Propositions d'activités collectives (Par exemple : rencontre, barbecue, cinéma …etc.). Nous avons pour habitude de célébrer les fêtes nationale et religieuse ensemble. ►Ce que nous ne publions pas: Nous veillons à garder une atmosphère saine, conviviale et bienveillante au sein du groupe. Dans ce sens, si votre publication ou commentaire sont ouvertement racistes, sexistes ou homophobes, ils seront supprimés du groupe. Même remarque pour tout message diffamatoire, injurieux, obscène, vulgaire, menaçant. Nous nous réservons aussi le droit de supprimer tout message qui nous parait inapproprié, hors-contexte ou qui est à l’encontre de l’objectif de ce groupe et le respect de nos chers compatriotes. Certains thèmes n'ont pas vocation à être abordés online sur ce groupe, qu’il s’agit de sujets politiques, religieux ou de sujets d’actualité qui n’ont pas de relation avec l’Allemagne. Nous encourageons nos membres à en discuter de vive voix pendant nos rencontres afin d'enrichir le débat. A noter aussi, la promo de sites internet ou page facebook hors-contexte, de publicité, des appels à pétition et le partage de musique ou de carte de vœux bonne année - 3id - Ramadan ... sont fortement découragés et ne seront pas publiés s'ils encombrent trop le groupe. ►Nous contacter Si vous pensez qu’un post, message (supprimé), commentaire, règle de ce groupe...etc. ne vous satisfont pas, n'hésitez pas à contacter l'un des admins avec l'objet de votre complainte. Nous restons toujours à votre écoute et seront ravi de vous aider. Mrahba bikoum :) Version du 13/01/2015. </t>
+          <t xml:space="preserve">группа «Недвижимость Ташкент» . Объявления о продаже, покупке и аренде недвижимости по городу Ташкент. Основные правила: Запрещается использовать в объявлениях информацию рекламного характера, ссылки на сайты, документы. Запрещается размещение дубликатов объявлений в одном разделе. Продлевать срок размещения объявлений и поднимать объявления в списке разрешается не чаще 1 раза в сутки. Информация, указанная в объявлении, должна соответствовать разделу. Администрация группы вправе без ведома пользователей удалять объявления, содержащие ложные или устаревшие данные. При размещении объявлений Пользователь отвечает за информацию, размещаемую им, и за последствия ее размещения. Срок их использования группой неограничен и определяется самостоятельно Пользователем. Администрация группы не несёт никакой ответственности за информацию, переданную Пользователем с помощью группы, и не контролирует её точность, полноту и достоверность ни при каких обстоятельствах. Правила модерирования объявлений: 1. Все объявления в группе «Недвижимость Ташкент» проходят премодерацию (проверку на соответствие правилам) в течение 24 часов. 2. Все объявления, размещаемые в группе «Недвижимость Ташкент», модерируются в соответствии с Правилами размещения объявлений. 3. В случае если модератор отклонил объявление как не соответствующее Правилам, Пользователь имеет возможность исправить его и снова отправить на проверку модератору. 4. В случае, если размещаемые объявления расцениваются модератором как спам, то такие объявления удаляются, а Пользователь лишается прав доступа к группе. 5. Администрация оставляет за собой право без объяснения причины блокировать доступ пользователям к группе. </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Berlin Events</t>
+          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/BerlinEvents/</t>
+          <t>https://www.facebook.com/groups/547151152108989/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Участники: 9,3 тыс.</t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>✿ Kostenlose Promo für dein Event ✿ www.Kultmucke.de/Partner ✿ The City is our Dancefloor! ✿</t>
+          <t>Купля продажа аренда недвижимости.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,174 +1678,174 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Live in Berlin</t>
+          <t>Родной Ташкент эски шахар</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/liveinberlin/</t>
+          <t>https://www.facebook.com/groups/251641519412207/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Участники: 8,9 тыс.</t>
+          <t>Участники: 1,5 тыс.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Please post your events here to be included on the Live in Berlin platform and newsletter. http://clockworkbanana.com/submit-event/</t>
+          <t>Фотографии, публикации и видеоролики о родном Ташкете,</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>10 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Meet-up Berlin</t>
+          <t>Foreigners in Tashkent today</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/450414261804070/</t>
+          <t>https://www.facebook.com/groups/3413693002081786/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Участники: 4,9 тыс.</t>
+          <t>Участники: 36</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Meet-up Berlin Welcome in Berlin. Are you ready for an Adventure? This Group is about meet-up with people living in the wonderful City Berlin. Allowed Posts: - Events - Questions for Hanging out - (...) Enjoy your stay ;) </t>
+          <t>Welcome to post your information FREE OF CHARGE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>2 публикации в неделю</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>International Friends in Berlin</t>
+          <t>Недвижимость: Ташкента</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/friendsinberlin/</t>
+          <t>https://www.facebook.com/groups/tashkent.nedvizhimost/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Участники: 33 тыс.</t>
+          <t>Участники: 21 тыс.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>If you are looking to meet real people in Berlin, check out our links page on our website, all groups are nice people only and are moderated, please read the rules before joining. The language of this group is English. https://clockworkbanana.com/berlin-social-chat-groups-community/</t>
+          <t xml:space="preserve">Правила группы - Недвижимость Ташкента №1 Направления группы: - квартиры ; - дома ; - коммерческая недвижимость. 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. Размещать не более 15 разных объявлений в неделю. 3. Запрещено размещать одно и тоже объявление несколько раз. 4. Разрешено одно поднятие объявления в неделю. Цели : - продажа ; - покупка ; - аренда ; - обмен ; - консультации. Правила группы: 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. При добавлении недвижимости необходимо указать: - Цель (Продажа/Покупка/Аренда/Обмен) - Количество комнат/этаж/сколько этажей в доме/площадь участка? - Где? (адрес квартиры с ориентиром) - Фото обязательно или план - Прочее описание (желательно) - Цена (обязательно - Контакты - Кто? (Автор объявления - Владелец/Риэлтор) (обязательно) * Все вышеуказанные пункты обязательны, объявления, не содержащие данную информацию могут быть удалены. 3. Запрещено размещение не тематических публикаций, не связанных с тематикой группы. Пользователи, нарушившие данное правило, будут удалены. 4. Запрещается размещение рекламы одежды, бытовой техники, смартфонов и т.д. 6. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. 7. Запрещено использование ненормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 8. Разрешено размещать только рекламу по недвижимости (за исключением автомототранспортного средства). </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Indians in Germany/ Deutschland</t>
+          <t>Toshkent va Toshkentliklar / Ташкент и Ташкентцы</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/826694351161803/</t>
+          <t>https://www.facebook.com/groups/912891669275828/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Участники: 42 тыс.</t>
+          <t>Участники: 853</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here we are connected to help each other who lives in Germany. Share the relevant information here. please respect others and avoid to spread any rumors... </t>
+          <t xml:space="preserve">Уважаемые Ташкентцы добавляем фото, исторические факты нашего любимого города. Хурматлик Тошкентликлар она шахримизни фотосуратларини ва тарихий воқеликларини қуйиб борамиз. </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>5 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Free Your Stuff Berlin</t>
+          <t>Курсы в Ташкенте</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/586599084814353/</t>
+          <t>https://www.facebook.com/groups/464218040450451/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Участники: 57 тыс.</t>
+          <t>Участники: 4,9 тыс.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeder der etwas loswerden will ohne Geld dafuer haben zu wollen.. Kann seine Artikel hier einstellen. Viel Spass beim Tauschen und Verschenken :) </t>
+          <t>Цель данной группы: информировать людей о предстающих курсах, которые будут проводиться в Ташкенте.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>20 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Zimmer in Berlin, Zwischenmiete</t>
+          <t>Tashkent Designers/Дизайнеры Ташкента</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/251856141592447/</t>
+          <t>https://www.facebook.com/groups/tashkent.designers/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Участники: 31 тыс.</t>
+          <t>Участники: 496</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t xml:space="preserve">Группа создана для тружеников графического и изобразительного искусства - веб-дизайнеров, иллюстраторов, мультипликаторов и др. Здесь Вы можете размещать свои работы, искать заказчика или исполнителя. Делитесь впечатлениями и новостями из мира искусства! Правила общения. Выборочная реклама на сторонние ресурсы с похожей тематикой находятся в ленте ограниченное количество времени. В публикациях и комментариях строго запрещается нецензурная лексика, оскорбления, публикации не по теме. Одинаковые комментарии под каждым постом со ссылками на сторонние сайты будут удаляться. </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Публикаций в год: 10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Techno Events Berlin</t>
+          <t>TOSHKENT MOLIYA INSTITUTI (Tashkent Institute Of Finance)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/TechnoEventsBerlin/</t>
+          <t>https://www.facebook.com/groups/tfinews/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Following postings are allowed: 1) real events in Berlin and cities nearby (we decide which ones will be allowed). 2) streaming event announcement 3) mix / dj set / "podcast" Please use our small tool https://nofu.de/fb/techno-events-berlin/ (2nd version) to generate and directly post your text. Please read the notes etc. when creating your data.</t>
+          <t>Все из жизни института, самые свежие новости и объявления, мероприятия и конкурсы, а также многое другое можно будет увидеть на данной страничке. _____________________________________ Institut hayoti, unda bo'layotgan tadbirlar va tanlovlar, hamda boshqa barcha ma'lumotlarni shu sahifada korishingiz mumkun bo'ladi.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1867,211 +1867,211 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pakistan community in Berlin Germany</t>
+          <t>Без посредников  Недвижимость Ташкент</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1959272090966865/</t>
+          <t>https://www.facebook.com/groups/573437529426067/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Участники: 12 тыс.</t>
+          <t>Участники: 19 тыс.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Here is first pakistani community groups in Berlin Germany add your friends and post your status of can help Pakistani community here is a lot of people from pakistan . </t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Berlin Film Community</t>
+          <t>REAI ESTATE IN TASHKENT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/BerlinIndependentFilmCommunity/</t>
+          <t>https://www.facebook.com/groups/rieltor2016/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Участники: 14 тыс.</t>
+          <t>Участники: 20 тыс.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Welcome to the Berlin Independent Films! Are you passionate about film making? Are you a professional looking for new opportunities and challenges? Are you a film lover curious how to get started? If you have experience behind or in front of the camera, or just starting up with dreams and aspirations - bring your talent and let's work together to make independent film. We are a group of passionate film creators focused on development, creativity and production of film in Berlin. We also offer help, film equipment, advice and all that goes into a film project. The purpose of our community is to : 1. collect ideas and develop screenplays for films, primarily for short movies 2. collect existing screenplays and start working on them together 3. building the team/crew and shoot the short film(s) 4. If you already have an ongoing project and you need help/crew, this can be the group for you. We want to stress is that we are not here to select or have opinions about what type of films you want to develop, it can be of any type or genre. The more diverse the better! But we do want to get started and shoot as soon as possible so that we get to start working together and learn more together. Maybe we can arrange our own small little short film festival after awhile? Not all of us will work on all projects, you choose freely what project you want to get involved with and in what capacity. The community will support and assist all projects and facilitate planning and meetings and also create our own ideas together with you. And for those of you who don't have a massive experience already - this will be an excellent opportunity to get down and dirty and learn by doing :) </t>
+          <t>Недвижимость; квартиры; новостройки; офис; дом; продажа; купить; агентство; риэлтор; Ташкент; центр; Окажем содействие купли-продажи нежвижимости</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>5 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Indian Events in Berlin (Germany)</t>
+          <t>ТАШКЕНТСКАЯ НЕДВИЖИМОСТЬ ( Купля-Продажа,Аренда квартир в г. Ташкенте)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/391374361619457/</t>
+          <t>https://www.facebook.com/groups/1602124636703442/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Участники: 1,8 тыс.</t>
+          <t>Участники: 17 тыс.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2 публикации в неделю</t>
+          <t xml:space="preserve">Уважаемые Участники рады приветствовать Вас в Нашей группе!!! В данной группе Вы можете разместить Своё объявление о следующем: 1.	Продажа. 2.	Купля (Покупка). 3.	Аренда. 4.	Обмен (Мена). 5.	Консультация ( Вопрос-Ответ). ОБЪЕКТЫ РЕКЛАМЫ: *Квартиры и комнаты *Дома, дачи и участки *Коммерческая недвижимость *** Объявления не соответствующие целям группы будут УДАЛЕНЫ!!! ПРАВИЛА ГРУППЫ: При добавлении объявления необходимо указать: --Продажа, Купля (Покупка), Аренда( *Сдаю,Сниму* ), Обмен (Мена). --Адрес (точный,либо ориентир). --Количество комнат, этаж, этажность дома. --Общая площадь. --Фотографии объекта (желательно). --Состояние (ремонт). --Цена объекта. --Контактный номер телефона. --Автор объявления ( Владелец/Риэлтор (Посредник). Все вышеуказанные пункты ОБЯЗАТЕЛЬНЫ при добавлении Вашего объявления!!!!! Объявления не соответствующие данным пунктам будут УДАЛЕНЫ без предупреждения!!! *Разрешено поднимать объявление ОДИН раз в день! ЗАПРЕЩЕНО: 1. Размещать одно и тоже объявление ПОВТОРНО! 2. Реклама Агентств Недвижимости, Риэлторских услуг! 3. Оскорблять участников группы  ( Уважайте друг друга)! 4. Размещать ссылки других сайтов, каналов, групп, страниц и их рекламы! ****Администрация группы не несёт ответственность за полную и достоверную информацию, предоставленную автором объявления. ВСЕМ УЧАСТНИКАМ ГРУППЫ ЖЕЛАЕМ УДАЧНОЙ И ВЫГОДНОЙ РЕАЛИЗАЦИИ ОБЪЕКТА!!! С УВАЖЕНИЕМ АДМИНИСТРАЦИЯ ГРУППЫ!!!!!! Ссылка на Нашу группу в Фейсбуке  "АРЕНДА НЕДВИЖИМОСТИ В ТАШКЕНТЕ", присоединяйтесь, размещайте свои объявления! https://www.facebook.com/groups/909240042491461/?ref=bookmarks Ссылка на Нашу группу в Фейсбуке  "ТАШКЕНТСКАЯ НЕДВИЖИМОСТЬ", присоединяйтесь, размещайте свои объявления! https://www.facebook.com/groups/1602124636703442/about/ Ссылка на Нашу страницу в Фейсбуке "Недвижимость в г. Ташкенте" fb.me/AlenaRieltor2512 Наш канал в телеграм: @RealPropertyTashkent </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Events Berlin</t>
+          <t>Uzbekistan Airways Technics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/124437841547420/</t>
+          <t>https://www.facebook.com/groups/535512496811934/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Участники: 6,1 тыс.</t>
+          <t>Участники: 1,1 тыс.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">The purpose of this closed group is to be able to organise events in and around Berlin - cultural and the arts - in the widest sense, daytrips, joint meals, pub quiz evenings and more. Everybody should feel free to suggest activities and post events. </t>
+          <t>Итак, решил создать данную группу, так как проработал на предприятии 24 незабываемых года. Работал с многими интересными, талантливыми людьми, профессионалами своего дела включая от слесаря до директора. Делитесь своими воспоминаниями, впечатлениями, эмоциями. Обсуждайте различные темы. И дай Бог процветания нашему родному предприятию"Uzbekistan Airways Technical (завод 243 ГА). Счастья, удачи всем кто здесь работал и продолжает работать. Я Думаю, что нам есть о чем поговорить✌😎🛫</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5 публикаций в день</t>
+          <t>10 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>International Singles in Berlin</t>
+          <t>ВРАЧИ  ТАШКЕНТА</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/258247345235242/</t>
+          <t>https://www.facebook.com/groups/221390174911720/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Участники: 2,3 тыс.</t>
+          <t>Участники: 34 тыс.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Single in Berlin? This is the place to meet new people and perhaps one of them could be your future partner. There are numerous apps for dating but we think facebook tells more about you than just a few carefully selected pictures and some cheesy intro. Our goal is help you find someone with whom you can build a relationship that is meaningful. If you are looking for hookups or ONS, this group might not be suitable for you. Our first milestone is to build this community to a point where we can take next steps and organize events for singles. </t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10 публикаций в неделю</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BERLIN SECRET TECHNO UNDERGROUND RAVES | German events,  parties, clubs</t>
+          <t>Аренда квартир в Ташкенте</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlinsecret/</t>
+          <t>https://www.facebook.com/groups/1647978165496858/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Участники: 21 тыс.</t>
+          <t>Участники: 1,9 тыс.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hi Party Animal, Welcome to the never-ending party in Berlin Germany... ♤ Berlin, Germany &amp; international DJs; ♡ Parties, Events &amp; Raves in Berlin; ◇ Partying Memes &amp; Jokes; ♧ Fellow ravers; Sincerely, Zymantas P.S. No drugs in any shape or form are allowed to be promoted here. Thank you for your cooperation. https://twitter.com/BYJAMESAI</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sell Your Bike Berlin</t>
+          <t>Tashkent Expat Community</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/sellyourbikeberlin/</t>
+          <t>https://www.facebook.com/groups/741615396187925/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Участники: 33 тыс.</t>
+          <t>Участники: 2,1 тыс.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Help me grow the SYBB community! BTC adress: 14RAHX8yabcgwT9rQNCJp7FGzGspMGE2zx ETH adress: 0xfa9e5b8e5537f4974f8a34ee08efafe4d4413321 Paypal: info@tirebelt.com Welcome on SYBB This group is meant to help non german speaking people currently in Berlin who are in the bike market (to buy, sell or get a bike repaired). Please spend a minute to read the group rules for a better use and understanding of the group. Be nice with the other users and if you schedule an appointment with someone stick to it! This group is a community. Enjoy it!</t>
+          <t xml:space="preserve">Helpful information on Tashkent for foreigners, expats. </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>8 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Flats in Berlin</t>
+          <t>Недвижимость. Ташкент (Продажа. Аренда)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/flatsinberlin/</t>
+          <t>https://www.facebook.com/groups/UmicHRealtoR/</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Участники: 108 тыс.</t>
+          <t>Участники: 7,8 тыс.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Please post here any available room or flat that you might hear about thru friends, or that you might be offering as a private. Feel free to invite anyone on the search for a flat, room or tenant.</t>
+          <t>Продажа, аренда недвижимости Ташкента</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2083,22 +2083,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WG Zimmer / Flats / Accommodation in Berlin!</t>
+          <t>Аренда по Ташкенту</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/404482559618901/</t>
+          <t>https://www.facebook.com/groups/1048267509290915/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Участники: 6,1 тыс.</t>
+          <t>Участники: 266</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>The place to find accommodation in Berlin Hier finden Sie eine Wohnung</t>
+          <t xml:space="preserve">Аренда по Ташкенту </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2110,292 +2110,292 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>New in Berlin (Neu in Berlin)</t>
+          <t>Недвижимость по Ташкенту и Ташкентской области. (покупка, продажа,аренда)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/809479195786794/</t>
+          <t>https://www.facebook.com/groups/5097345756945590/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Участники: 7,3 тыс.</t>
+          <t>Участники: 555</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Welcome to Berlin! We are "New in Berlin" and are looking for nice and fun people to hang out, meet for drinks, party, have a coffee, go bowling, intercambios, shopping, rollerblading, etc. Everybody is welcome who wants to join the community! -------------------------------------------------------------- Herzlich Willkommen in Berlin! Wir sind "Neu in Berlin" und wir sind auf der Suche nach Leuten zum abhängen, was Trinken gehen, Party machen, Kaffee trinken, Bowling, Shopping, Rollerblading, usw. Jeder ist willkommen, der mitmachen will bei unserer Community! Verwendet das Forum, um euch zu treffen, Erfahrungen auszutauschen, Fragen zu stellen (Wohnen, Sprachkurse, Restaurants, etc.) und Spaß zu haben.</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>English Activities (Berlin, Germany)</t>
+          <t>ВСЁ ДЛЯ ВСЕХ.UZ (Tashkent)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/English.activities.Berlin/</t>
+          <t>https://www.facebook.com/groups/1767740693490159/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Участники: 20 тыс.</t>
+          <t>Участники: 26 тыс.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">This is a platform for interactive Activities in the English language in and around Berlin. (Thus, this isn’t a platform for music and dance acts, surveys, language schools, restaurants, private offers, chats or for links to websites or facebook groups or anything else unrelated to an English activity event.) For English ENTERTAINMENT-ONLY events please go to ----&gt;&gt;&gt;&gt; https://www.facebook.com/groups/English.entertainment.events.Berlin/ Commercial links and spam will be removed (before they appear!), violators to this simple rule will be removed from the group. </t>
+          <t>Недвижимость, Автомобили, Телефоны и связь, Компьютеры, Бытовая техника, Фото и Фотоаппараты, Мебель и Интерьер, Оборудование, Отдам Даром, Услуги, Работа и Обучение, Строительство и Ремонт, Спорт, Отдых, Туризм, Бизнес и Тендеры, Одежда и Аксессуары, Всё для Детей, Красота и здоровье, Подарки и Сувениры, Животные и Растения, Разное</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Tunesier in Berlin توانسا في برلين</t>
+          <t>Toshkent tumani hokimligi | Хокимият Ташкентского района</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/192257620799522/</t>
+          <t>https://www.facebook.com/groups/1993049590974990/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Участники: 6,7 тыс.</t>
+          <t>Участники: 1,4 тыс.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">(Twensa fi Berlinتوانسا في برلين )... Tunesier in Berlin ist eine Gruppe von Tunesier in Berlin und für Tunesier und deren Freunde in Berlin, Deutschland, Tunesien und sonst wo auf der ganzen Welt... Wir möchten eine Starke Gemeinschaft schaffen um gemeinsam uns auszutauschen und Spaß zu haben. Alle sind recht herzlich hier eingeladen, die sich als Tunesier fühlen </t>
+          <t>Ушбу саҳифа Тошкент тумани ҳокимлиги фаолиятини кенг ёритиб бориш, фуқаролар билан мулоқотда янада қулайлик яратиш мақсадида ташкил этилган. Саҳифа Тошкент тумани ҳокимлиг Ахборот хизмати томонидан юритилади.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7 публикаций в день</t>
+          <t>2 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Berlin Tech Jobs</t>
+          <t>Tashkent Flats Apartments for Rent in Uzbekistan</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlintechjobs/</t>
+          <t>https://www.facebook.com/groups/268724738366149/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Участники: 5,4 тыс.</t>
+          <t>Участники: 1,7 тыс.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>A community for open sharing of tech job openings in Berlin curated by Landing.Jobs http://bit.ly/landing-jobs-berlintechjobs</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1 публикация в год</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Kunst in Berlin / Arts in Berlin</t>
+          <t>Мебель в Ташкенте</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/21086774217/</t>
+          <t>https://www.facebook.com/groups/1408029736162799/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Участники: 13 тыс.</t>
+          <t>Участники: 2,1 тыс.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>In dieser Gruppe könnt ihr Empfehlungen, Kommentare, Tipps, ... für interessante Ausstellungen, Kunstprojekte, Events,... in Berlin und Umgebung posten. Willkommen sind natürlich auch Beiträge zu anderen Städten und Regionen ;-). Here you can post comments, advice, recommendations,... about interesting art projects, exhibitions, events... taking place in Berlin and surroundings. Of course, entries regarding other cities and region are welcome as well :-)</t>
+          <t>Группа для производителей мебели, а так же объявления о мебели на заказ в Ташкенте.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>2 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Berlin Apartments - Rent - Share &amp; Sell flats &amp; apartments in Berlin!</t>
+          <t>CouchSurfing Tashkent</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/183048595060764/</t>
+          <t>https://www.facebook.com/groups/1023602661057962/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Участники: 121 тыс.</t>
+          <t>Участники: 786</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>commercials have to pay for postings!</t>
+          <t xml:space="preserve">Couchsurfers of Tashkent, with common passion for travel, adventure, history, culture, languages, cuisine, and desire to connect the people of the world using hospitality and a couch. "Participate in Creating a Better World, One Couch At A Time" </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Публикаций в месяц: 2</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Language Tandem Berlin</t>
+          <t>National University of Uzbekistan named after Mirzo Ulugbek</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/LaTaBe/</t>
+          <t>https://www.facebook.com/groups/MilliyUniversitet/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Участники: 41 тыс.</t>
+          <t>Участники: 1,6 тыс.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/meet.and.greet.berlin This a group for people that would like to meet in order to help each other to learn a language. Or just gather to have fun! Impressum, Angaben gemäß § 5 TMG: Paul Stoliar Humboldtstraße 53 14193 Berlin Telefon: 01757175805 E-Mail: p.stoliar@gmx.net Steuernummer: 24/547/62182</t>
+          <t xml:space="preserve">Индекс: 100174 Страна: Узбекистан Город: ТАШКЕНТ Район: Алмазарский ул. УНИВЕРСИТЕТСКАЯ, 4 </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 8</t>
+          <t>Публикаций в месяц: 2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>English speaking people looking for a job - Berlin</t>
+          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/117466029043352/</t>
+          <t>https://www.facebook.com/groups/665588176814815/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Участники: 14 тыс.</t>
+          <t>Участники: 3,5 тыс.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">This group should help English speaking people from all over the world to find a job in Berlin. Let's exchange our knowledge. Rules: 1. No commercial to stuff out of the topic 2. Be nice to each other 3. No spam 4. If you would like to post a job offer make sure that name the company you are representing is insite (to filter out spam) </t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6 публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Secret Party Berlin</t>
+          <t>золото в Ташкенте Узбекистан</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/57169635820/</t>
+          <t>https://www.facebook.com/groups/436005346587829/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Участники: 11 тыс.</t>
+          <t>Участники: 5,7 тыс.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Once in a blue moon there is a secret party in Berlin. We love the people in this group and we promise to send you all a message with a link to the next Secret Location Party in Berlin This group was put together because we wanted to make a party where the people that attend the party know that its them who really make the party. So without a name and without the normal mainstream pull of a brand we gather the underground of Berlin for another pure party display. LOCATION MAP COMING SOON !!! Posted to members of this group 1 days before the event. Findable after face to face investigation. FACEBOOK GROUP INFO :- http://www.facebook.com/thezooproject Playing only the best underground house, vinyl only DJs, producers and live acts from around the world Zoo &amp; Vinyl Club rec. move from location to location in search of the best venues in Berlin ! _________________________________________________ The next secret location will be sent to everyone in this group. If you have any great ideas of where and when to hold a secret location party in Berlin, send your ideas to one of the group admins. Location, timing and the quality of the people in this group is important so don't hesitate to get involved remember this is Berlin and Berlin is one of the few places in the world that magic can happen. ---------------------------------------------- THIS IS A GROUP FOR CLUED UP MUSIC LOVERS &amp; ARTISTS WHO ARE SEARCHING FOR SOMETHING A DIFFERENT! We will be looking in corners that haven't been looked in before to find underground artists who are playing the freshest house tracks from the most forward thinking record labels. Last Event :: FAMILIENBANDE :: Arena Club Berlin :: Ricardo Villalobos &amp; friends Join Mimmi and friends at Arena Club Berlin TALENT (in order of play) TOBY DESCHAMPS RICARDO VILLALOBOS 23:30 ;) MIKE SHANNON MATTHEW STYLES LUC TOPPER LEO CUBANERO MIA Plus Unannounced guests -------------------------------------------------- IMPORTANT DATES ZOO Family http://www.thezooproject.com/ or join http://www.facebook.com/thezooproject Play Safe </t>
+          <t xml:space="preserve">Золото в Ташкенте Узбекистан. Золотые изделия цепочки, кольца, браслеты, обручалки. Выкладываем только золотые изделия. Прочии объявления будут удалятся и блокировать автора. Цены грамм и пробу желательно прикрепляйте под каждой фотографии. Так же пишите, интересуйтесь по whatsup / Telegram Тут можно купить золотые изделия а так же продать свое. Так же мы покупаем лом 583 / 585 пробы.  Контакты: Тел - +998933953580 Whatsup, Telegram, Viber - +99893 3953580 </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 2</t>
+          <t>20 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Gigs in Berlin</t>
+          <t>Новостройки Ташкента / Yangi Uylar</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/495366290651309/</t>
+          <t>https://www.facebook.com/groups/novostroyka/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Участники: 4,7 тыс.</t>
+          <t>Участники: 4,5 тыс.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>This is a place for people who want to go to gigs in Berlin and want to get organized. Friends don't let friends miss a good gig.</t>
+          <t>Центр новостроек Ташкента от застройщиков http://novostroyka.shahar.uz Канал в телеграм https://t.me/cityshahar Группа поддержки https://t.me/novostroyki_uz Проект Новостройки Ташкента посвящен первичному рынку недвижимость Ташкента. офис продаж: +(99871) 200-00-01 Ждем Вашего звонка с 09:00-19:00 - 0% комиссии от Покупателя; - цены от застройщика; - экспертная консультация клиентов по объекту строительства; - экспертная консультация по формам приобретения; - экспертная консультация по программам кредитования; - выезд на объект строительства и показ квартир; - юридическое сопровождение сделки #Новостройки #Ташкент#yangiuylar #Жилые комплексы #квартиры #новостройки #купить #продажа #покупка Все новостройки Ташкента с полным описанием жилых комплексов, планировок квартир и месторасположением жилого комплекса на карте http://novostroyka.shahar.uz #novostroykitashkenta #tashkent #kupitkvartiryvtashkente #prodatkvartiruvtashkente #купить</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Публикаций в год: 10</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Flats in Berlin | Best rooms for accommodation | Rent and flatsharing</t>
+          <t>Summer Work and Travel 2021 Tashkent</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/I4099/</t>
+          <t>https://www.facebook.com/groups/853915944631619/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Участники: 3,4 тыс.</t>
+          <t>Участники: 4,7 тыс.</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9 публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2407,130 +2407,130 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Wohnung in Berlin  WG Zimmer</t>
+          <t>Квартиры в Ташкенте</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlin.flat/</t>
+          <t>https://www.facebook.com/groups/kvartira.uz/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Участники: 12 тыс.</t>
+          <t>Участники: 22 тыс.</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>This is a NON commercial group about rooms, flats, roommates &amp; flatmates in Berlin! We try to keep our group free from SPAM &amp; commercial advertising, please do not post any links to commercial websites! Links to NON commercial like wg-gesucht.de are allowed. . Dies ist eine nicht-kommerzielle Gruppe für Zimmer-, Wohnung-Suchende in Berlin! Wir versuchen unsere Gruppe frei von SPAM &amp; kommerzielle Werbung zu halten, bitte keine Links zu kommerziellen Webseiten veröffentlichen! Links zu nicht-kommerziellen Seiten wie wg-gesucht.de sind natürlich erlaubt. . . . Wohngemeinschaft WG Zimmer mieten &amp; vermieten in Berlin. WG Börse. Ihre Easy WG Suche! easywg, room, flat, apartment rent, Zimmer, Wohnung in Berlin gesucht, frei, chambre, location appartement, camera, appartamento in affitto, sala, piso en alquiler, student, language, pokój, wynajmę mieszkanie w Berlinie комната, квартира, аренда квартиры в Берлине, кімнати, оренда квартири в Берліні...</t>
+          <t>Объявления о продаже, покупке, аренде квартир, домов, дач, земельных участков в Ташкенте. Подпишитесь, и вы ничего не пропустите.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>+Expats in Berlin+</t>
+          <t>Работа в Ташкенте, Узбекистане</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/expats.in.berlin/</t>
+          <t>https://www.facebook.com/groups/982214648469055/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Участники: 10 тыс.</t>
+          <t>Участники: 25 тыс.</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>This is a platform for expats to help each other and provide information on the life in the coolest city in Europe: Berlin. Ask questions &amp; share things! Topics covered: - arrange meetings to meet new people - renting and searching flats - giving each other advice of good locations - language tandem - anything related to expat life Basically, share everything you think is useful and ask questions to the community. Rules We have a zero tolerance policy for bullying, trolling and spamming. Please respect the decision of the Admins, even if you don't agree. Avoid making negative comments about someone’s grammatical or spelling errors. It is frowned upon and may subject you to being temporarily muted or banned without warning. Post which breach our general Rules &amp; Conditions will be deleted without any warnings. No Promotions or Spam: Give more than you take to this group. Self-promotion, spam and irrelevant links aren't allowed. You can mention your product that you’re affiliated with if it is relevant to a specific tools discussion, but with an included disclaimer on your affiliation. Please use the pinned posts for all matters related to events, housing, jobs, services etc. FYI: -The default language of the group is English, posts in other languages will not be approved and will be deleted if seen on posts with no warning. -In order to make your search easier, you can always enter your topic on ´Search this group´on the top right corner to retrieve older posts on what you are looking for. -Please do not post twice your event or ad, just bump it up for not cluttering the group. -Last but not least: You're interested to become an admin to support us in our daily work? PM me for more informations -more information about our expat community: www.sympat.me/community</t>
+          <t xml:space="preserve">Уважаемые участники, группа создана для тех кто хочет трудоустроиться, найти работу, а так же для тех кто ищет сотрудников для своей компании. Запрещено размещать одно и тоже объявление несколько раз. Разрешено поднимать размещённое объявление не более одного раза в неделю. Количество объявлений доступных для размещения, для одного пользователя составляет не более 2 объявлений. Для получения возможности: - размещения более 2 объявлений - получение возможности доп. поднятий - закрепления объявления в топике группы - брендировании обложки - прямой рекламы и ссылки других групп, страниц. Обращайтесь к администрации группы. Объявления не имеющая отношения к нашей группе будут блокированы администратором. Просим вас соблюдать правила группы. </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 8</t>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Free Advice Berlin</t>
+          <t>«My Little Tashkent / Мой Маленький Ташкент</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/FreeAdviceBerlin/</t>
+          <t>https://www.facebook.com/groups/561997617298443/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Участники: 67 тыс.</t>
+          <t>Участники: 227</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Free advice for Berlin residents. You can ask the people in the group for anything related to life in Berlin and we will do our best to answer. House Rules: Currently is the pinned post. If not, there is a document in the files section. Please take your time read and respect our house rules. Long story short, it is a volunteer platform. Please respect each other. Thank you. Remember to like our Facebook page: https://www.facebook.com/freeadviceberlin/</t>
+          <t xml:space="preserve">  Общедоступная группа для всех у кого в сердце вечно молодой и любимый ТАШКЕНТ!!! Убедительная просьба не публиковать посты про сбор денег, поиск кого-то и т.д. Только про наш любимый ТАШКЕНТ. Для остального есть целевые группы.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Публикаций в месяц: 5</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lost and found in Berlin</t>
+          <t>Tashkent  State  Technical University</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/lostandfoundinberlin/</t>
+          <t>https://www.facebook.com/groups/UzbekistanTSTU/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Участники: 14 тыс.</t>
+          <t>Участники: 720</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">**Disclaimer: Not an official page of Lost and Found Berlin Office Our aim is for this group to become the first point of contact for all those living in Berlin who sadly have lost their belongings or even if their pet has gone missing... Website on the way! </t>
+          <t>This group for , who studied or graduated from Tashkent State Technical University</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5 публикаций в день</t>
+          <t>6 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Indians in Berlin</t>
+          <t>Online shopping!!!!! (tashkent)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/2606668189644850/</t>
+          <t>https://www.facebook.com/groups/1387145834847540/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Участники: 5,8 тыс.</t>
+          <t>Участники: 3,7 тыс.</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6 публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2542,292 +2542,292 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>🇮🇳 Indians in Berlin 🇩🇪</t>
+          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/IndianinBerlin/</t>
+          <t>https://www.facebook.com/groups/510296117390315/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Участники: 9,4 тыс.</t>
+          <t>Участники: 49</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pro nationalist platform for Indians in Berlin. </t>
+          <t>🔝Самые горячие объявления по всему Ташкенту - Выгодная недвижимость! - Поможем продать и купить - Новостройки - вторичка - Самые востребованные районы и города Ташкента - Контакты Риэлторов :  - Фёдор +998997222523</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Публикаций в год: 10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>berlin EXPATS</t>
+          <t>Новостройки Ташкента</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlinexpats/</t>
+          <t>https://www.facebook.com/groups/new.home.tashkent/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Участники: 74 тыс.</t>
+          <t>Участники: 11 тыс.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>This is an English language group for internationals living in Berlin. We are interested to hear about your Berlin expat life experiences: - Berlin Expat related advice - What are your favourite places in Berlin - What's happening in Berlin right now - Social gatherings (but not commercial events) - Recommendations (but not advertisements) - Berlin related news in English We only accept posts which are: - Written in English - Include a comment (i.e do not just post a link to a news article or website) Before making a request for help with something, we recommend trying the search bar as many topics such as Anmeldung appointments, English speaking tax advisors, etc. have already been asked and you may already find your answer there. We are unlikely to accept posts; - that promote yoga, open mic/stand ups and requests to take part in surveys (whether paid or free). This is due to the huge amount of requests we receive for posting such events which are very well catered for by other groups. - those advertising products, services, or paid events unless (in very rare circumstances) we deem them relevant for the majority of the group. - or are apartments or rooms for rent (particularly posts of a commercial nature). For selling and free stuff we suggest joining one of the many ‘Free your stuff’ or ‘Buy and sell stuff Berlin’ groups, or use the Facebook Marketplace. We reserve the right to delete any post or comment at our discretion and without explanation or notice. (See also the ‘group rules’) This is a community driven platform. You are invited to help shape this policy. Send a message to the administrators. https://www.facebook.com/groups/berlinexpats/admins/ Please note, we have a zero tolerance policy against personal insults, bullying, harassment, racism and discrimination of all kinds. Be nice to each other ...</t>
+          <t>Группа "Новостройки Ташкента" - Группа только для НОВОСТРОЕК, новых евродомов. Предлагайте и выбирайте варианты Новостроек Ташкента. - Публикуются только рекламы Новостроек (новостроенные квартиры, евродома, дачи, нежилые объекты) - Запрещается публикации Аренды/Сдачи - Запрещается реклама своих услуг, только целевая продажа новостроек - Разрешается только одна публикация и 1 поднятие в неделю. По всем вопросам телефон: +998935578721</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ERASMUS BERLIN 2021/2022 (Official group)</t>
+          <t>MDIS Tashkent (Freedom of Ideas)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/erasmusinberlincity/</t>
+          <t>https://www.facebook.com/groups/452191764824902/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Участники: 1,2 тыс.</t>
+          <t>Участники: 1,3 тыс.</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Official group for Erasmus students in Berlin 2021/2022 🙂 This is the ONLY group created by the Erasmus Student community for Berlin. Beware of other erasmus groups not connected to us. 🙄 What can you find inside the group? ➡️ Important information about your erasmus here; ➡️ Recommended websites to look for accomodation; ➡️ Exclusive DISCOUNT codes for several accomodation websites: 👉 Uniplaces: https://www.uniplaces.com (25% discount code available) 👉 Spotahome: https://www.spotahome.com/ (25% discount code available) 👉 More websites inside the group All discount codes are available inside the group in this link: https://www.facebook.com/groups/erasmusinberlincity/announcements/ ➡️ Whatsapp group and Telegram group links; ➡️ Exclusive partnerships with several companies offering discounts to students; ➡️ and a lot more... For landlords that want to advertise their appartment/rooms, please post pictures and specify the price, value of monthly bills and location. Advertisements which don't contain that information won't be accepted! 🚦🛑 Please be VERY CAREFUL with scams. Every year people get scammed and lose money. We try to ban any offer in the group that might seem a SCAM but its hard to control everything and most of the time they will just create a new profile and try again. If you think someone is trying to scam you, report your negative experience to us and the profile the person is using so they are banned from the group. 👮‍♂️ This are some situations that are most likely scam: 🤜 Profile of person that contacted you doesn't have many pictures and likes; 🤜 Money transfers to people and banks that are not portuguese; 🤜 Money transfers by Revolut; 🤜 Stories that are complex; Make sure to check on Google Maps and Street View if the address exists. If you have doubts don't rent, sometimes is just better to be safe and use a certified accomodation website to rent! 🚫 Don't be shy and ADD YOUR ERASMUS FRIENDS to the group to give them a chance to make new friends and participate 🙂 There are more important informations inside the group in the pinned message. Don't forget to READ IT. 😊 Let's make this an Erasmus to remember 🙂🎉💃🍻👙💋</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>6 публикаций в неделю</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Techno Scene Community</t>
+          <t>British Management University in Tashkent</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/technosceneofficialgroup/</t>
+          <t>https://www.facebook.com/groups/1111955775886312/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Участники: 61 тыс.</t>
+          <t>Участники: 12</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">All about techno ______________________________________ All posts require admin approval. Please follow the simplified posting guidelines: 1. TECHNO only! 2. Post in English so everyone can understand. 3. NO Beatport links. 4. NO live videos! 5. NO event links unless agreed with the admins. 6. Respect each-other and spread good vibes! Subscribe to our channels: https://www.soundcloud.com/technosceneofficial https://www.youtube.com/c/Technoscene </t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>50 публикаций в неделю</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Berlin Meet-ups</t>
+          <t>ТОШКЕНТ (TASHKENT)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/392380004256196/</t>
+          <t>https://www.facebook.com/groups/57686142700/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Участники: 10 тыс.</t>
+          <t>Участники: 185</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The primary purpose of this group is to provide an opportunity for people in Berlin to get to know like-minded people and do some fun activities with them. If you are someone who wants to know new people from all over the world, make new friends or just make your stay in Berlin plenty of fun, you're in the right place! We will organize various events throughout the year. The activities are varied: Cinema and Films, Sport, Travel, Pubs &amp; Bars, Walking and Hiking, Concerts, Dancing, Hang Out and Chill, Dining Out, BBQs, Happy Hour and More ... Additionally, this group gives you an opportunity to organize(with the help of the admins, of course) any event of your choice and ask other like-minded people to join your event! Or you could get in touch with any of the admins and we will organize the event for you. See you soon at one of our upcoming events :)</t>
+          <t>The capital of the republic of Uzbekistan.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 8</t>
+          <t>Публикаций в месяц: 5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>StartUP Berlin</t>
+          <t>Доска обьявлений Ташкент</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/startupberlin/</t>
+          <t>https://www.facebook.com/groups/1435443223375797/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Участники: 6,4 тыс.</t>
+          <t>Участники: 26 тыс.</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Die Facebookgruppe von StartUP Berlin zur Vernetzung der Startup-Szene in Berlin und Umgebung. https://StartUP-Berlin.com</t>
+          <t xml:space="preserve">ПРАВИЛА ГРУППЫ 1. В группе нужно вести себя уважительно ко всем участникам. Запрещены оскорбления и угрозы в адрес участников группы, ненормативная лексика. Также комментарии, унижающие человеческое достоинство. 2. Строго запрещен расизм, религиозные и политические высказывания. 3. Запрещены сообщения, не относящиеся к содержанию статьи или к контексту обсуждения, спам. 6. Нельзя обсуждать в негативной форме любых работников государственных учреждений, зарплату, другие денежные компенсации персонала и т.д. 7. Нельзя создавать конфликтные посты. Авторы будут удалятся без предупреждения. В случаях несоблюдения участниками правил, администрация имеет право удалять сообщения, посты и самих участников по своему усмотрению, без предупреждения. Действия модераторов не обсуждаются иным образом, кроме как в личной переписке. Администрация вправе изменять правила без предупреждения и на свое усмотрение. АДМИНИСТРАЦИЯ ГРУППЫ НЕ НЕСЕТ ОТВЕТСТВЕННОСТИ ЗА ПОСТЫ, ИНФОРМАЦИЮ, КОММЕНТАРИИ ОТ УЧАСТНИКОВ ГРУППЫ </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4 публикации в неделю</t>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Roommates / apartments for rent in Berlin</t>
+          <t>Недвижимость в Ташкенте</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/122360351137872/</t>
+          <t>https://www.facebook.com/groups/329294340843042/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Участники: 30 тыс.</t>
+          <t>Участники: 2,3 тыс.</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>This group discusses on jobs and real estate assets in Berlin, Germany. There is a priority to who publishes davres.com/berlin in the post. It's *free, quick and very good exposure*. You can publish on the wall ads if you want to rent to someone any kind of apartment, home or house or looking for. You can publish your ad if you look for a roommate to apartment you are already in or looking for apartment. Note: Publish ads as one of the following ways: a. In English b. In English + other languages, for example: German (There is no limitation for number of languages).</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 3</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Berlin - housing &amp; roommates</t>
+          <t>Job in Tashkent</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlin.housing.and.roommates/</t>
+          <t>https://www.facebook.com/groups/jobtash/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Участники: 4,1 тыс.</t>
+          <t>Участники: 875</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Looking for a flatmate? Us too!! This group has been created to connect people looking for flatmates with people who have an available flat in Berlin. Feel free to post your listing and interact with other members: this community is for people who want to meet and live with other awesome people! Please add [WANTED] or [OFFERING] at the beginning of each post!</t>
+          <t>Publication of vacancies will allow you to get unlimited number of responses from the interested specialists with detailed resume, motivational and recommendatory letters</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7 публикаций в день</t>
+          <t>Публикаций в месяц: 6</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Photographers in Berlin</t>
+          <t>Ташкент - СНОС</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/982928451722557/</t>
+          <t>https://www.facebook.com/groups/328799110874813/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Участники: 4,9 тыс.</t>
+          <t>Участники: 27 тыс.</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A place were you can share, learn, and communicate with other photographers based in Berlin. Knowing people who like the same things than you, is priceless.</t>
+          <t>Эта группа создаётся для взаимообразного информирования жителей тех районов города, которые всякими правительственными решениями попадают под снос. Давайте делиться информацией о том, как происходит выселение, как обеспечиваются положения Конституции и других законов Республики Узбекистан. Давайте поможем друг другу защитить свои права! Просьба писать по делу и не засорять группу продажными предложениями и всякими шуточками, не относящимися к теме данной группы. Запрещается публиковать материал, способный посеять межнациональную, межконфессиональную и межгендерную рознь.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>20 публикаций в неделю</t>
+          <t>9 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Berliner Philharmoniker</t>
+          <t>Ташкент</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/670295496482240/</t>
+          <t>https://www.facebook.com/groups/1650651238409439/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Участники: 24 тыс.</t>
+          <t>Участники: 646</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>A group dedicated to the renowned and esteemed Berliner Philharmoniker. Eine Gruppe, den altbekannten und hochverehrten Berliner Philharmonikern gewidmet.</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>9 публикаций в неделю</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Berlin: LONG TERM flats</t>
+          <t>Tashkent University of Information Technologies</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/berlinlongtermflats/</t>
+          <t>https://www.facebook.com/groups/intatu/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Участники: 19 тыс.</t>
+          <t>Участники: 70</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">***Answer the questions and agree to the rules to join*** This is a group for posting about legal, fairly -priced long term flats in Berlin. No spam, no short-term, and no flat-seeker profiles; long-term flats and nothing but! </t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2839,216 +2839,135 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Berlin Housing</t>
+          <t>Работа в Ташкенте</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/316886635183491/</t>
+          <t>https://www.facebook.com/groups/1251840781857978/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Участники: 69 тыс.</t>
+          <t>Участники: 843</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hi everyone, Thanks for stopping by and welcome to our group “Berlin housing”! We hope that this might help you in your apartment/room search in Berlin. This is a group for people who are either looking for a place to live in Berlin, either short term or long term. We like to keep the group clean, so stick to the subject, and no spamming! Remember to include full details of the flat or room such as the price, location, photos and/or m² size. Before you get started, however, we ask that you READ &amp; FOLLOW these very simple guidelines. Not only will this help the group admins keep the group in order, but will also make everyone’s experience on this group more helpful, enjoyable and pleasant. #1. There will be no cursing in this group – ever. That includes also any statement that the group admin deems inappropriate. #2. Do not advertise your business on this group. The group is purely for posting housing offers. Members who frequently post ads and got reported as spam by other members will be REMOVED and BLOCKED from the group. #3. Do not post ads to sell items. There are other groups for selling and exchange of items in Berlin. This is ONLY for people looking to rent a flat or room. If someone post irrelevant message the admin will DELETE the post. #4. All opinions will be treated with mutual respect, unless they violate any of the group rules. Treat your fellow Berlin housing group members with that same respect. #5. If a member personally attacks another member with words that are harmful, threatening, violent, insulting or not in-line with our mutual respect policy, that member will be REMOVED and BLOCKED from the group. #6. If you read any comment or post that isn’t in line with these guidelines, please report it to the group admins. Please consider that there is an option to report a post or a comment, by clicking on the 3 dots on the top right side of the post. Personal messages to the group admins will not work as efficiently as this feature. #7.Please help keep the group clean and report anything that does not belong here or simply concerns you to us. We will examine every report and try our best to keep the content up to date. #8. The Berlin housing group admins are entitled to deny entry to any member they choose. They are also allowed to block and/or remove members that don’t comply with the house rules. For more info on the apartments we post here, check out this link: https://www.facebook.com/groups/316886635183491/permalink/748171212055029/ Thank you for your cooperation! Enjoy!</t>
+          <t>Стань на шаг ближе к своей мечте!</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Публикаций в месяц: 8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Expats World in Berlin</t>
+          <t>Rent a flat, appartment or house in Tashkent ( Expats )</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/ExpatsClubBerlin/</t>
+          <t>https://www.facebook.com/groups/322911838197722/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Участники: 1,5 тыс.</t>
+          <t>Участники: 218</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Welcome to ExpatsWorld - the fastest growing global community for people who live or move abroad! Enjoy this group for your posts, comments and communication with other expat members in your city. Also visit our webpage expatsworld.com to read our blog, magazine or to watch our TV Channel. Your ExpatsWorld Community Team l</t>
+          <t>You can find your ideal appartment or post your appartment for rent or sale here</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>Публикаций в год: 20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>مصريين فى برلين-Egyptians in Berlin</t>
+          <t>UJUAC Tashkent</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/496494910554716/</t>
+          <t>https://www.facebook.com/groups/965731243443393/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Участники: 2,6 тыс.</t>
+          <t>Участники: 311</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>الجروب للمصريين المقيمين فى برلين وضواحيها.  لو عندك معلومه مفيده تقدر تفيد بيها غيرك عن دراسه أو عمل أو سكن أو غيرة أهلا ومرحبا بك. نرجوا منكم عدم التطاول على بعض فى الأراء كل واحد له مطلق الحرية فى التعبير عن رأية طلاما فى إطار الأدب والأحترام العام ولا يمثل اى نوع من أنوع السخرية لأحد الأعضاء. الرجاء عدم التطرق للكلام فى السياسة أو الأديان فنحن لسنا بأهل فتوى حتى يظل الحب والود بين جميع الأعضاء. الرجاء عدم اخذ أى خبر أو منشور أو سؤال من الجروب ونشرة فى مكان آخر دون إستئذان صاحبة. الجروب غير مسؤل عن اى تعاملات مادية أو تجارية تحدث من خلال اعضاء الجروب. إذا كنت صاحب مشروع تجارى مرحب بك بنشر بوست تعريفى عن مشروعك مرة أو مرتين وبعد ذلك تقوم بوضع بيانات مشروعك فى المنشور المثبت للمشاريع التجارية. نعتذر لك ، سوف نقوم بحذفك ،إذا قمت بإهانة أي عضو في المجموعة أو استخدمت الفاظ خارجة فى الرد، أو تطاولت على الأديان. الرجاء إذا كنت تريد إضافه صديق لك يكون مصرى ومقيم فى برلين. شكرا لتفهمكم والمعاونة حتى تظل الأجواء داخل الجروب بها أُلفة ومحبة ومرح😊 ويكي المجموعة : https://egyptians-in-germany.de/%D8%A7%D9%84%D8%B5%D9%81%D8%AD%D8%A9_%D8%A7%D9%84%D8%B1%D8%A6%D9%8A%D8%B3%D9%8A%D8%A9</t>
+          <t xml:space="preserve">Уважаемые Бывшие студенты и стажеры японских ВУЗов, наш клуб UJUAC (Uzbekistan Japan Universities Alumni Club) теперь и на Facebook!!! Наша цель собрать всех студентов японских ВУЗов которые, вернулись в родной Узбекистан. </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Публикаций в год: 10</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Berlin Borough New Jersey A great place to live!</t>
+          <t>TASHKENT DRIVE</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/185908301731/</t>
+          <t>https://www.facebook.com/groups/tashkent.drive/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Участники: 4,7 тыс.</t>
+          <t>Участники: 597</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A group dedicated to past or present residents of Berlin Borough, New Jersey. Guidelines/information for all members to follow in this group: 1. This group was not created or is it managed by Berlin Borough officials, however there are several governing body members in the group. As of 08/20/2016 this group will have a ZERO tolerance policy for bullying or personal attack’s 2. All posts are monitored by the administrators and are subject for removal if deemed inappropriate or offensive. If you post anything offensive it will be deleted and you will be removed from the group, this is not up for debate! 3. This is not a yard sale group so please do not post these items here or they will be deleted by the administration. 4. **NEW** to the group will be PROMOTE YOUR BERLIN BUSINESS DAY, promote your BERLIN only based business. If you operate/own a business in Berlin you may post an advertisement for your business. Please only post your business once a week, or yours will be removed by the Administrators. 5. Feel free to post questions asking for information about businesses, events, or services pertaining to Berlin Borough. Or you may search for information on the borough website at: Borough Web Site: www.berlinnj.org Police Department Web Site: www.berlinnj.org/police-department-about.php Fire Department Web Site: www.bfc211.org Board of Education: www.bcsberlin.k12.nj.us 6. Posting of lost/found pets as follows: Members may place a posting of a lost/found pet but as soon as they're reunited with their respective owners the member who posted must delete the posting as soon as possible. 7. If the administration deletes your post we will make every effort to try and reach out to the posting member, to inform them as to why it was deleted. If you do not agree with our actions you're free to leave the group. 8. This is an at will group that you chose to be a member of, if you do not agree with these policies, the members, or how the administrators run the group, feel free to leave the group. With all that being said, the administrators hope you have fun and enjoy being a member of Berlin Borough New Jersey, a GREAT Place to Live!!! Group policy updated on: 2/15/19</t>
+          <t>УВАЖАЕМЫЕ ВОДИТЕЛИ УЧАСТНИКИ ГРУППЫ ‼TASHKENT DRIVE‼ ПРОСИМ СОБЛЮДАТЬ НАШИ ПРАВИЛА 1⃣ Пожалуйста, пишите только ПО ТЕМЕ❗↙ ( Новых правилах, таблиц штрафов, пробки,новости о дорожных ситуациях, ПДД, продажа-покупка авто, тюнинг, ДТП и так далее, всё что касается авто. и дорожных ситуаций)‼ 2⃣ УДАЛЯЕМ автора фото, и видео ПОРНОГРАФИЧЕСКОГО содержания❗ 3⃣ ЗАПРЕЩАЕТСЯ: выставлять фото и видео нецензурного содержания, с жертвами ДТП, а так же фото НЕ ПО ТЕМЕ; использовать МАТ и ВСЯКИЕ РУГАТЕЛЬСТВА (так же сокращения; ппц, хз и т.п)❗ 4⃣ Девушки: если кто-то ПРИСТАЕТ из группы, не мучаемся❗А делаем скрин его сообщений, и отправить в ЛС админам❗ Удаляем участника БЕЗ ПРЕДУПРЕЖДЕНИЯ❗ 5⃣ ЗАПРЕЩАЕТСЯ ЛЮБАЯ ИНФОРМАЦИЯ ПОЛИТИЧЕСКОГО, И РЕЛИГИОЗНОГО ХАРАКТЕРА❗ ❗При нарушении одного из правил, будет удален из группы на 6 - 24 часа ( Или на более долгий срок ) Добавили друга, отправьте сразу правила ему, за нарушение вышеизложенных правил удаление с группы❗ Уважайте Друг Друга На Дорогах! Все Мы Участники Дорожного Движения и на Мерсе и на Москвиче! С Уважением Администрация группы! Амаль, @umarov_01 Денис (@Denis_973)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Публикаций в год: 10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Sell your furniture Berlin</t>
+          <t>‘Mericans In Tashkent</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/190750864590950/</t>
+          <t>https://www.facebook.com/groups/154439415186322/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Участники: 43 тыс.</t>
+          <t>Участники: 61</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Hello future members and members! This group was created to find cool second hand and vintage furniture in Berlin. Thus the name of the group: SELL YOUR FURNITURE Anything that belongs to a household can be sold here. There are a couple of rules and guidelines that we need to set up and kindly ask you to stick to them: 1. You should be a Berlin resident. 2. We only allow private sales. However if you want to sell some cool, handcrafted unique furniture here or offer helpful services around the house, please contact the admins before any kind of advertising! 3. This group is only for furniture and basic household items. Do not sell clothing, shoes, cars, electronics (such as phones, cameras, laptops) etc. here. There are other groups for that. Average electronic household items are: washing machine, fridge, toaster, vacuum cleaner etc. You know what we mean, right? :) 4. It should go without saying, that we do not accept porn or any kind of annoying bullshit in this group. You will get blocked without further ado. 5. No pet sales, flat rentals or job offers. But you're welcome to post plants or other common decorations that make your household a home. 6. Life is fun! Don't make it harder for others, don't be rude or sarcastic. 7. Last point and important: With every post ALWAYS give the Berlin district with nearest station and also the price for every single item. And never forget: As soon as your item is sold, go to the post and click on the little arrow to tag it as SOLD. Thank you for making this group work! Have a good day</t>
+          <t>Нет данных</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Free Your Stuff Berlin</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/freeyourstuff/</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Участники: 188 тыс.</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This is Free Your Stuff Berlin, where you are welcome to give and request free stuff. If it’s not FREE, don't post it. This means: • Animals are not stuff so please don't give or ask for them on the group; • No selling, buying or asking where to buy; • No swaps, exchanges or rewards; • Only things that are located in Berlin, no shipping costs! (risk of scam!); • No donations in exchange for something; • Sharing of free events may be allowed - they should be completely non-profit and unrelated to party politics; For advice or information, please ask in Free Advice Berlin first but feel free to share any non commercial info stuff on the group as well. • For apartment rentals, there are other, better groups for that on Facebook; • For lost and found, please go to the Berlin Fundbüro; • For surveys and questionnaires, please ask your friends Spam or advertisements, trolling, sexism, racism, misogyny any other unfriendly -isms are not tolerated, nor are unwelcome, unsolicited PMs or friend requests to other members. • To report a member bothering you or the group, please contact an admin via the members section of the group (remember your message will go in their Other folder, so may not be immediately seen). • To report a post which you think breaks the rules, use the Report to Admin function. You may need to hide the post first. </t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>10+ публикаций в день</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>International Women in Berlin</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/internationalwomeninberlin/</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Участники: 27 тыс.</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">✨Welcome to International Women in Berlin! This group is for everybody who identifies as a woman and lives in Berlin. Here we want to have as close to a safe space as possible, which means that empathy and non violent communication is our #1 rule 🥰 👉🏼 Everybody who joins the group has to read the rules and the FAQ before posting anything. You can find them here on our website, among helpful articles and interviews with IWB members https://www.internationalwomeninberlin.com 👉🏼 Follow us on instagram as well! </t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>10+ публикаций в день</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Tandem Language Exchange</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/groups/tandemexchange/</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Участники: 26 тыс.</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Group for language and culture sharing addressed to people from all around the world interested in language exchange and language learning. Grupo para compartir idioma y cultura. Dirigido a personas de todo el mundo interesadas en el aprendizaje y el intercambio de idiomas. ------------------------------------------------------ In this group, you can learn and practice foreign languages while sharing your mother tongue, meeting people, and having fun. The Tandem method, developed by the Tandem Foundation, is the best way of improving your language skills and achieving fluency. Practice a foreign language with your native speaker Tandem partner, who in turn wants to learn your native language. This group is supported by Tandem® International, a network of independent language schools in Germany, Spain and Chile. All the Tandem schools have adopted the Tandem method, which means that all schools place special emphasis on the cultural integration of their students, through facilitating language exchange with native speakers. Learn languages and have fun!</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>10 публикаций в день</t>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>

--- a/information.xlsx
+++ b/information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Статус группы</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Количество участников</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Описания группы</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Информация о публикации</t>
         </is>
@@ -463,241 +468,286 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TORG.UZ (Tashkent)</t>
+          <t>Ташкент</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/TORG.UZ.TASHKENT/</t>
+          <t>https://www.facebook.com/groups/1650651238409439/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Участники: 147 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Уважаемые Пользователи. Добавляйте объявление о продаже своих б/у или новых вещей !!! В нашу бесплатную доску объявлений !!! Будем сотрудничать и грамотно определять стоимость и запрос !!! Добро пожаловать в группу TORG.UZ-TASHKENT !!! https://www.facebook.com/groups/TORG.UZ.TASHKENT/</t>
+          <t>Участники: 646</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tashkent - Uzbekistan 🇺🇿</t>
+          <t>❤️ ТАШКЕНТ ЗНАКОМСТВА И ВСТРЕЧИ ❤️</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tashkentuzbekistan/</t>
+          <t>https://www.facebook.com/groups/1372028519803930/</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Участники: 2,8 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tashkent, Uzbekistan's capital, is situated in the country's eastern foothills, near to the borders with Kazakhstan, Kyrgyzstan, and Tajikistan. It is the most major city in Central Asia, with a population of over two million people, including a sizable Russian minority. This group was formed to discuss all aspects of tourism in Tashkent, Uzbekistan. #Tashkent #Uzbekistan #Travel #World #Holiday #Facebook</t>
+          <t>Участники: 22 тыс.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 3</t>
+          <t>Приветствуем Вас в нашей группе 🥰!!!!❤️Ташкент-знакомства и встречи❤️!!! 😎 Правила группы от администрации😎 1 Группа создана для знакомства,дружбы и общения.🤝 2 будьте доброжелательны и вежливы друг к другу✊ 3 уважайте мнение других людей👍 4добавляйте своих друзей и знакомых🙋 5 если информация и фотография участника отсутствует,то администратор имеет права не добавлять вас в группу.🤗 Цели и приоритеты группы! 1знакомства, общения,дружба,брак🥰 2организации вечеринок,встреч🥳 3 хорошее настроение и позитивный настрой!!!🤩  Запрещено в группе: 1 оскорблять участников группы🤬 2 посты о религии и политики😱 3 выставлять посты разжигающую межнациональную вражду😳 4 выставлять пошлые фото и нецензурную брань😱 5 размещение рекламы и спам За несоблюдение правил удаляется участник без предупреждения!!!🤬 Если у вас есть вопросы по поводу рекламы или жалобы на участника,пишите администратору группы😎 Георгий Ефимов😎 С уважением Администрация!!!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Expats in Tashkent</t>
+          <t>Ташкент қазақтары</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1686966231483292/</t>
+          <t>https://www.facebook.com/groups/2707062462735312/</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Участники: 1,4 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>This group is for expats living in Uzbekistan, specifically in Tashkent. The aim is to help foreigners, inform them with events and fun activities, and also find a lots of new friends. so let's enjoy it and share happiness with others!</t>
+          <t>Участники: 17 тыс.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Водители Ташкента (DRIVERS.UZ) ‐ 273 тыс. участников</t>
+          <t>НОВОСТИ УЗБЕКИСТАНА</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/drivers.uzb/</t>
+          <t>https://www.facebook.com/groups/1486266718335265/</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Участники: 12 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Участники: 32 тыс.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Нет данных</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tashkent developers :: Jobs</t>
+          <t>Недвижимость в ташкенте (без посредников)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tasdev.jobs/</t>
+          <t>https://www.facebook.com/groups/196099460800069/</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Участники: 4,8 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Работа в сфере Software Development и смежных областях. Разрешена публикация вакансий и резюме. ПОИСК СТАЖЁРОВ/СТАЖИРОВКИ - используйте тэг #tasdev_intern Руководство по написанию хорошего текста вакансии: https://www.facebook.com/groups/tasdev.jobs/permalink/1616321108422717/ Реклама, спам, флуд, оффтоп запрещены. рекламные посты удаляются вместе с авторами без предупреждений. Группа для общения разработчиков: https://www.facebook.com/groups/tasdev/</t>
+          <t>Участники: 21 тыс.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2 публикации в неделю</t>
+          <t>Продажа, покупка, обмен, сдача в аренду, без посредников. И любая информация по недвижимости в ташкенте.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Foreigners in Tashkent</t>
+          <t>OLX. Ташкент Узбекистан</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/128470843985339/</t>
+          <t>https://www.facebook.com/groups/3134447073264339/</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Участники: 3,7 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Foreigners in Tashkent is the place where you can find people from various places originally but currently living in Tashkent. Here people share their knowledge and experience about Tashkent, its places and people. Join our Telegram Group https://t.me/joinchat/dI7PjJ9NbKliYTY6</t>
+          <t>Участники: 3,3 тыс.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10 публикаций в неделю</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Группа «Tashkent Retrospective. Старые фото Средней Азии и Туркестана»</t>
+          <t>Мы родом из Ташкента+</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/179399492874859/</t>
+          <t>https://www.facebook.com/groups/900142603829016/</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Участники: 16 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Группа «Tashkent Retrospective. Старые фото Центральной Азии и Туркестана».  В этой группе старые фотографии, иллюстрации, архивные видео записи от самих участников группы. Мы не ограничиваемся фотографиями Ташкента или Узбекистана. Публикуем фотографии со всего региона. Желательно при публикации указывать автора и источник фото. Также незабываем описать фотографию по мере возможности. Где снято, год съемки и т.д.  </t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5 публикаций в день</t>
+          <t>Группа создана для тех кто в силу обстоятельств уехал из страны - но она осталась в � сердце!</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tashkent Chemical and Technological institute</t>
+          <t>Работа в Ташкенте всем!</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/264476070266575/</t>
+          <t>https://www.facebook.com/groups/worktashkent/</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Участники: 68</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 20 тыс.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>УСПЕХА И ПРОЦВЕТАНИЯ ВСЕМ!</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Массажистки Ташкента</t>
+          <t>Знакомства В Ташкенте</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/242315444225091/</t>
+          <t>https://www.facebook.com/groups/1566436336746635/</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Участники: 2,2 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Группа мастеров массажа из города Ташкента!</t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Публикаций в месяц: 8</t>
         </is>
@@ -706,160 +756,190 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>X-places (Tashkent)</t>
+          <t>Доска обьявлений Ташкент</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/xplaces/</t>
+          <t>https://www.facebook.com/groups/1435443223375797/</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Участники: 17 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Этих мест нет на развлекательной карте города. Открытые по сути, они защищены амулетом обыденности, дальней стенкой шкафа, промежуточной платформой ж/д вокзала и привычной реальностью. Здесь мы ими делимся. И нам нужно ваше участие! Однако, у группы есть свои правила и традиции: 1. Уважаем друг друга. Здесь не бьются, не спамят, говорят по делу и проходят мимо, если что-то не нравится. Материалов в группе много - можно всегда найти себе по душе. 2. Чтим конфиденциальность полученной информации, личных сведений и прав (включая право на изображение, где бы оно не было получено). Группа рада проявлению интереса со стороны масс-медиа, но убедительно просит о предварительном согласовании публикуемых материалов и изображений. 3. Каждый сам несёт ответственность за безопасность и правовую грамотность. Здесь не призывают к повторению. 4. Бережём хрупкую магию мест. Идеи об организованных мероприятиях, коммерческой деятельности и рекламе согласовываются с администраторами. Мы знаем, где читать афишу весёлых, кислых и прочих тусс. Приравнивается к оффтопу. 5. Руководство группы право, но не всегда. Что ж, бывает.. :) С предложениями о сотрудничестве обращаться к администраторам.</t>
+          <t>Участники: 26 тыс.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t xml:space="preserve">ПРАВИЛА ГРУППЫ 1. В группе нужно вести себя уважительно ко всем участникам. Запрещены оскорбления и угрозы в адрес участников группы, ненормативная лексика. Также комментарии, унижающие человеческое достоинство. 2. Строго запрещен расизм, религиозные и политические высказывания. 3. Запрещены сообщения, не относящиеся к содержанию статьи или к контексту обсуждения, спам. 6. Нельзя обсуждать в негативной форме любых работников государственных учреждений, зарплату, другие денежные компенсации персонала и т.д. 7. Нельзя создавать конфликтные посты. Авторы будут удалятся без предупреждения. В случаях несоблюдения участниками правил, администрация имеет право удалять сообщения, посты и самих участников по своему усмотрению, без предупреждения. Действия модераторов не обсуждаются иным образом, кроме как в личной переписке. Администрация вправе изменять правила без предупреждения и на свое усмотрение. АДМИНИСТРАЦИЯ ГРУППЫ НЕ НЕСЕТ ОТВЕТСТВЕННОСТИ ЗА ПОСТЫ, ИНФОРМАЦИЮ, КОММЕНТАРИИ ОТ УЧАСТНИКОВ ГРУППЫ </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🙌 Массаж в Ташкенте🙌</t>
+          <t>Работа в Ташкенте</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/MassageMansTashCity/</t>
+          <t>https://www.facebook.com/groups/980733635681099/</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Участники: 7,6 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Здравствуйте дамы и господа данная группа предназначена для поиска мастеров массажного искусства в городе Ташкент. Тут вы можете найти разных мастеров из разных районов города Ташкент! Реклама в данной группе на платной основе по всем вопросам обращаться в телеграмм к нашему боту: https://t.me//MMTCFbot</t>
+          <t>Участники: 14 тыс.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8 публикаций в неделю</t>
+          <t>Здравствуйте, уважаемые работодатели! Рады приветствовать вас на странице города в Фейсбуке по поиску работы и персонала "Работа в Ташкенте". О размещении: Вакансию необходимо предложить на стене сообщества. Вакансия должна отражать всю суть работы, а именно: Название компании: Требуется: Требования: График и время работы: Адрес: Заработная плата: Телефон: Желательно приложить к вакансии качественную тематическую картинку Мы не принимаем вакансии, связанные с сетевым заработком, финансовыми пирамидами и прочими похожими (и не похожими на ваш взгляд) методами заработка. Запрещено также: реклама внутри вакансий, размещение вакансий интимного характера .Обьявления размещаются на платной основе.Стоимость_50000 сум.По вопросам размещения _пишите на почту_ tsolak545@yandex.ru</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TORG.UZ (Tashkent)</t>
+          <t>РАБОТА - ТАШКЕНТ - ISH - ТOSHKENT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/404567553030714/</t>
+          <t>https://www.facebook.com/groups/191361055627904/</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Участники: 28 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 16 тыс.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t xml:space="preserve">Обьявления по работе - публикации бесплатны. Всегда! </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MDIS Tashkent</t>
+          <t>КУПИ-ПРОДАЙ в Ташкенте ®</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/mdistashkent/</t>
+          <t>https://www.facebook.com/groups/torg.tashkent/</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Участники: 2,8 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 30 тыс.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>ОБЪЯВЛЕНИЯ БЕЗ ОГРАНИЧЕНИЙ НО ЕСТЬ И СВОИ ПРАВИЛА !!! Уважаемые участники группы прошу соблюдать правила и уважать друг друга ! Участники могут пожаловаться на публикацию, если она, по их мнению, не соответствует теме или противоречит правилам группы. В ГРУППЕ ЗАПРЕЩАЕТСЯ : 1. Запрещены публикации с ссылками на другие страницы, группы, сайты. 2. Запрещено размещать своё объявление в комментариях- создавайте собственное. 3. Запрещены публикации или комментарии, содержащие нецензурные выражения, а также публикации эротического и порнографического характера. 4. Запрещены публикации или комментарии оскорбительного характера в адрес участников, а также публикации криминального характера. Участники, нарушившие правила, исключаются из группы. Исключенный участник может быть повторно принят в группу, если посчитает, что готов следовать правилам группы. Участники, совершающие грубые нарушения правил удаляются из группы и блокируются навсегда.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RABOTA V TASHKENTE</t>
+          <t>Ташкент | Узбекистан | Ищу тебя (обсуждение)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/976127155820868/</t>
+          <t>https://www.facebook.com/groups/anxor.ru/</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Участники: 21 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 3,1 тыс.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Поиск людей, живущих в Узбекистане, уехавших из Узбекистана, тех, с кем потеряна связь.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Публикаций в месяц: 6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>РАБОТА - ТАШКЕНТ - ISH - ТOSHKENT</t>
+          <t>Куплю-Продам(Ташкент)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/191361055627904/</t>
+          <t>https://www.facebook.com/groups/1687509718202192/</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Участники: 16 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Обьявления по работе - публикации бесплатны. Всегда! </t>
+          <t>Участники: 123 тыс.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>⭐Группа для покупки и продажи разного товара в Ташкенте и Узбекистане⭐</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -868,52 +948,62 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UZBEK  STATE WORLD LANGUAGES UNIVERSITY (students)</t>
+          <t>Аренда и Продажа Квартир (Ташкент)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/UzSWLUstudents/</t>
+          <t>https://www.facebook.com/groups/arenda.prodaja.kvartir/</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Участники: 5,3 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jahon tillari universitetining yangi binosi qurib bitirildi 31. 08. 2015 16:11 2446 A- A+ Toshkentda O'zbekiston davlat jahon tillari universitetining yangi o'quv-ma'muriy binosi qurib bitirildi. 1news.uz saytida ushbu binoning suratlari chop etildi. Aytilishicha, binoda 2 200 talaba ta'lim oladi. Bino yaqinida zamonaviy sport kompleksi, 400 kishilik oshxona va xorijiy mutaxassislar uchun mehmonxona qad ko'tardi. Talabalar shu o'quv yilidan boshlab ushbu binoda ta'lim ola boshlaydi. Teglar: qurilish, Jahon tillari universiteti</t>
+          <t>Участники: 19 тыс.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Публикаций в год: 8</t>
+          <t xml:space="preserve">Добро пожаловать в группу! Здесь вы можете Продать или Купить недвижимость Сдать в Аренду или найти аренду жилья и предложить Обмен. Разрешена публикация исключительно купли/продажи, сдача/поиск аренды, обмен любой недвижимости, расположенной в городе Ташкент (Узбекистан). За публикацию постов не имеющих отношения к недвижимости - бан после 3 удаленного админом поста. За рекламу своей группы, странички, и тому подобного, так же бан после 3 удаленного поста. Спасибо. Телефон для справок +998935819266 </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Работа в Ташкенте всем!</t>
+          <t>Торгуем тут . Ташкент.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/worktashkent/</t>
+          <t>https://www.facebook.com/groups/1746599582272917/</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Участники: 20 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>УСПЕХА И ПРОЦВЕТАНИЯ ВСЕМ!</t>
+          <t>Участники: 47 тыс.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Покупки, Продажи, Реклама </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -922,25 +1012,30 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Real estate in Tashkent (Недвижимость в Ташкенте) Купля, продажа, аренда</t>
+          <t>Недвижимость: Ташкента</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1377155015916831/</t>
+          <t>https://www.facebook.com/groups/tashkent.nedvizhimost/</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Участники: 4,7 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Добавляйте свои объявления по купле-продажи,аренды квартир, домов,участков и объектов недвижимости в Ташкенте </t>
+          <t>Участники: 21 тыс.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Правила группы - Недвижимость Ташкента №1 Направления группы: - квартиры ; - дома ; - коммерческая недвижимость. 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. Размещать не более 15 разных объявлений в неделю. 3. Запрещено размещать одно и тоже объявление несколько раз. 4. Разрешено одно поднятие объявления в неделю. Цели : - продажа ; - покупка ; - аренда ; - обмен ; - консультации. Правила группы: 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. При добавлении недвижимости необходимо указать: - Цель (Продажа/Покупка/Аренда/Обмен) - Количество комнат/этаж/сколько этажей в доме/площадь участка? - Где? (адрес квартиры с ориентиром) - Фото обязательно или план - Прочее описание (желательно) - Цена (обязательно - Контакты - Кто? (Автор объявления - Владелец/Риэлтор) (обязательно) * Все вышеуказанные пункты обязательны, объявления, не содержащие данную информацию могут быть удалены. 3. Запрещено размещение не тематических публикаций, не связанных с тематикой группы. Пользователи, нарушившие данное правило, будут удалены. 4. Запрещается размещение рекламы одежды, бытовой техники, смартфонов и т.д. 6. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. 7. Запрещено использование ненормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 8. Разрешено размещать только рекламу по недвижимости (за исключением автомототранспортного средства). </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -949,52 +1044,62 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>УСЛУГИ ТАШКЕНТ</t>
+          <t>Знакомства, Ищу тебя Ташкент!!!</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/631396497331869/</t>
+          <t>https://www.facebook.com/groups/530498903803321/</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Участники: 2,2 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Присоединяйтесь в группу �� � Здесь вы найдете различных мастеров �� � Бесплатная подача объявления о ваших услугах � � Продажа в рекламные дни � Добавляйтесь � http://t.me/uslugitashkent</t>
+          <t>Участники: 13 тыс.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Работа в Ташкенте</t>
+          <t>Ташкент Купи Продай Торг всем</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/980733635681099/</t>
+          <t>https://www.facebook.com/groups/1822877731276045/</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Участники: 14 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Здравствуйте, уважаемые работодатели! Рады приветствовать вас на странице города в Фейсбуке по поиску работы и персонала "Работа в Ташкенте". О размещении: Вакансию необходимо предложить на стене сообщества. Вакансия должна отражать всю суть работы, а именно: Название компании: Требуется: Требования: График и время работы: Адрес: Заработная плата: Телефон: Желательно приложить к вакансии качественную тематическую картинку Мы не принимаем вакансии, связанные с сетевым заработком, финансовыми пирамидами и прочими похожими (и не похожими на ваш взгляд) методами заработка. Запрещено также: реклама внутри вакансий, размещение вакансий интимного характера .Обьявления размещаются на платной основе.Стоимость_50000 сум.По вопросам размещения _пишите на почту_ tsolak545@yandex.ru</t>
+          <t>Участники: 7,5 тыс.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>Ташкент Купи Продай Торг всем</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -1003,27 +1108,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>tashkent</t>
+          <t>Барахолка в Ташкенте (товары и услуги)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/369941029861610/</t>
+          <t>https://www.facebook.com/groups/tovariuslugivtashkente/</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Участники: 376</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>X-files Востфака. Ориенталисты всех стран! Поститесь здесь пока мы вас помним!</t>
+          <t>Участники: 133 тыс.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2 публикации в неделю</t>
+          <t xml:space="preserve">Уважаемые участники ,группа создана для размещении информации в сфере услуг, которая может быть полезна и интересна данной аудитории. Запрещено размещать одно и тоже объявление несколько раз.Разрешено поднимать размещённое объявление не более одного раза в неделю.Количество объявлений доступных для размещения, для одного пользователя составляет не более 2 объявлений. Для получения возможности: - размещения более 2 объявлений - получение возможности доп. поднятий - закрепления объявления в топике группы - брендировании обложки - прямой рекламы и ссылки других групп, страниц. Обращайтесь к администрации группы. Объявления не имеющая отношения к нашей группе будут блокированы администратором. Просим вас соблюдать правила группы. </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
@@ -1040,15 +1150,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t xml:space="preserve">Общедоступная группа </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Участники: 27 тыс.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Работа в Ташкенте и Узбекистане, свежие вакансии на сегодня... Удобный поиск работы и актуальная база вакансий и резюме от прямых работодателей, кадровых агентств и соискателей. Помогаем трудоустроиться! 1. В группе ЗАПРЕЩЕНО: 1.1. Осуществлять публикации не соответствующие тематике группы, т.е. поиску работы и поиску персонала), НАПРИМЕР: посты о продаже недвижимости, услуг. 1.2. переходить на личности и оскорблять других участников группы; 1.3. публиковать контент, содержащий информацию провокационного и запрещенного характера; 1.4. размещение прямой рекламы и ссылки других групп, страниц. 1.5. публикация постов, идентичных по содержанию более 1 раза. 1.6. Размещать вакансии в сфере СЕТЕВОГО МАРКЕТИНГА! 2. В группе РАЗРЕШЕНО: 2.1. Вежливое обращение к участникам группы; 2.2. Расширение численности группы, путем добавления друзей и знакомых; 2.3. Распространение информации о наличии вакансий и резюме путем лайков и репостов. 2.4. Подача жалобы на пост, содержащий запрещенную правилами группы информацию в личные сообщения к администратору группы 2.5. Размещать публикации информационного характера и ссылка на нововведения в законодательстве о труде. Для получения возможности: - размещения более 3-х объявлений - получение возможности доп. поднятий - закрепления объявления в топике группы - брендировании обложки/шапки - прямой рекламы и ссылки других групп, страниц. Обращайтесь к администрации группы. Просим вас соблюдать правила группы! В случае нарушения вышеуказанных правил, администратор группы оставляет за собой право удалить пост и заблокировать пользователя без объяснения причины.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>4 публикации в день</t>
         </is>
@@ -1057,187 +1172,222 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TASHKENT CITY</t>
+          <t>TORG.UZ (Tashkent)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/2097006853915574/</t>
+          <t>https://www.facebook.com/groups/TORG.UZ.TASHKENT/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Участники: 1,1 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 147 тыс.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Уважаемые Пользователи. Добавляйте объявление о продаже своих б/у или новых вещей !!! В нашу бесплатную доску объявлений !!! Будем сотрудничать и грамотно определять стоимость и запрос !!! Добро пожаловать в группу TORG.UZ-TASHKENT !!! https://www.facebook.com/groups/TORG.UZ.TASHKENT/</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Знакомства Ташкент</t>
+          <t>Продажа,покупка и обмен!(Ташкент)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1183138595489835/</t>
+          <t>https://www.facebook.com/groups/ProdashaPokupkaTashkent/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Участники: 3 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Здесь можно Искать сваю сваю сюдьбу. Канал телеграмм https://t.me/znakomsstvoo Групп тг https://t.me/znakomsstvooo</t>
+          <t>Участники: 97 тыс.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9 публикаций в день</t>
+          <t>Дорогие участники читайте пожалуйста правила группы: 1. В группе запрещена реклама сторонних сайтов и групп, компаний. Запрещено размещение ссылок в объявление ведущие на другие сайты, группы.Реклама проектов и программ сетевого и интернет маркетинга,финансовые маркетинги и т.д. не публикуются! 2. Запрещено размещать одно и тоже объявление несколько раз. 3. Разрешено одно поднятие объявления в неделю. 4. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. 5. Запрещено использование ненормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 6. При изменении условий/продажи/отмены, просим участников своевременно изменять/удалять свои объявления. 7.Объявления с фотографиями без цен, комментарий будут удаляться. 8.СПАМЕРЫ блокируются и удаляются из группы незамедлительно. -.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-. Администрация группы не несет ответственность за достоверную и полную информацию, предоставляемую участником. -Жалобы и претензии на размещенную участниками объявления, можете отметить в правом верхнем углу поста! Более 3 жалоб на участника/объявление, рассматривается дальнейшее участие в группе нарушителя. -.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-. ?#?покупкапродажаиобменташкенте? ?#?торгуемтут? ?#?шоппинг? ?#?аренда? ?#?покупка? ?#?продажа? ?#?обмен? ?#?ташкент? ?#?узбекистан? ?#?люди? ?#?продаем? ?#?торгуз? ?#?торгуем? ?#?купляпродажа? ?#?дома? ?#?квартиры? ?#?золото? ?#?коммерческая? ?#?коммерция? ?#?срочно? ?#?алмазар? ?#?чиланзар? ?#?юнусабад? ?#?мирабад? ?#?мирзоулугбек? ?#?бектемир? ?#?хамза? ?#?яшнабад? ?#?шайхантахур? ?#?яккасарай? #сергели #учтепа #pokupkaprodashaiobmenvtashkente #tashkent #torguem #tashkenta #torguemtut #pokupka #prodaja #arenda #obmen #kommercia #toshkent #uzbekistan #sotibolish #oldisotdi #ijara #dom #kvartira #dacha #shopping #kadastr #plan #mesto #adress #orientir #cena #people #citizen #olxuz #panel #bank #gabus #publikacia #nedvijimostvuzbekistan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Врачи Ташкента</t>
+          <t>Объявления в Ташкенте</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/vrachitashkenta/</t>
+          <t>https://www.facebook.com/groups/uztorg/</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Участники: 129 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Врачи Ташкента - это группа для поиска нужных, грамотных и компетентных специалистов- врачей разных профилей в Ташкенте и не только. В Группе также проводится просветительская и информативная деятельность. ВНИМАНИЕ! Рекомендации, полученные в группе нельзя расценивать как назначения. Вся информация носит только рекомендательный характер и предназначена только для повышения грамотности. Это НЕ руководство к действию. Давайте сохранять доброжелательную атмосферу в группе, СОБЛЮДАТЬ ПРАВИЛА ГРУППЫ и Проявлять ВЗАИМОУВАЖЕНИЕ! ПРАВИЛА ГРУППЫ НЕОБХОДИМО ПРОЧИТАТЬ сразу ПОСЛЕ ВСТУПЛЕНИЯ в группу, по этой ссылке: https://www.facebook.com/groups/vrachitashkenta/permalink/1432629326793411/ РЕКОМЕНДУЕМ ПОДПИСАТЬСЯ: НАША СТРАНИЦА НА ФБ, где вы можете найти много полезного для себя: https://www.facebook.com/VrachiTashInternational/ НАШ КАНАЛ В ТЕЛЕГРАММ: https://t.me/VrachiTashkenta_Telegram Админы и Модераторы: Dildora Sekler (к.м.н., вирусолог, специалист по молекулярно-генетическим исследованиям) Азизахон Ходжаева (к.м.н., врач-инфекционист, гепатолог, иммунолог), Лидия Гутникова (врач-невролог, терапевт, закончила резидентуру США) Николай Давис (врач- инфекционист-паразитолог. Резидентура США) Абдурахим Тойчиев (к.м.н. врач- инфекционист- паразитолог, гастроэнтеролог)</t>
+          <t>Участники: 60 тыс.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Объявления частных лиц и организаций Ташкента, с ценами, фото и контактной информацией. Вступай в группу чтобы не потерять.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tashkent State University of Economics</t>
+          <t>Ташкент - СНОС</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tsue.uz/</t>
+          <t>https://www.facebook.com/groups/328799110874813/</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Участники: 4,2 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Toshkent davlat iqtisodiyot universitetining rasmiy sahifasi www.tsue.uz</t>
+          <t>Участники: 27 тыс.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2 публикации в день</t>
+          <t>Эта группа создаётся для взаимообразного информирования жителей тех районов города, которые всякими правительственными решениями попадают под снос. Давайте делиться информацией о том, как происходит выселение, как обеспечиваются положения Конституции и других законов Республики Узбекистан. Давайте поможем друг другу защитить свои права! Просьба писать по делу и не засорять группу продажными предложениями и всякими шуточками, не относящимися к теме данной группы. Запрещается публиковать материал, способный посеять межнациональную, межконфессиональную и межгендерную рознь.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>АРЕНДА/ПРОДАЖА/КВАРТИР/ТАШКЕНТ</t>
+          <t>Базар.UZ (Ташкент)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/238576114433292/</t>
+          <t>https://www.facebook.com/groups/1830138440597436/</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Участники: 1,1 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Поиск квартир в аренду, продажу, сдача в аренду, продажа квартир, домов, коммерческой недвижимости и тд. </t>
+          <t>Участники: 16 тыс.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Мебель на заказ в Ташкенте</t>
+          <t>Водители Ташкента (DRIVERS.UZ) ‐ 273 тыс. участников</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/mebeluzbekistan/</t>
+          <t>https://www.facebook.com/groups/drivers.uzb/</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Участники: 508</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://t.me/mebelnazakazvtashkente1</t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 7</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Недвижимость в ташкенте (без посредников)</t>
+          <t>Барахолка Ташкент уз</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/196099460800069/</t>
+          <t>https://www.facebook.com/groups/306062573446612/</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Участники: 21 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Продажа, покупка, обмен, сдача в аренду, без посредников. И любая информация по недвижимости в ташкенте.</t>
+          <t>Участники: 3,3 тыс.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -1246,106 +1396,126 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IELTS in Tashkent, Uzbekistan.</t>
+          <t>Распродажа Ташкент</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1662139257404843/</t>
+          <t>https://www.facebook.com/groups/1685058471747313/</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Участники: 685</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hi. You are welcome to share with your ideas and thoughts related to the IELTS exam. Good luck with your exams and get 9 out of 9.:-)</t>
+          <t>Участники: 9,8 тыс.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3 публикации в неделю</t>
+          <t>В данной группе Вы можете выкладывать объявления о продаже, покупке и обмене в морально-этических пределах без ультиматума.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Аренда квартир в Ташкенте</t>
+          <t>Торг.уз  (ташкент)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1634005426616533/</t>
+          <t>https://www.facebook.com/groups/943025412492359/</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Участники: 9,2 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Участники: 28 тыс.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Нет данных</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Водители Ташкента  #The First</t>
+          <t>Знакомства в Ташкенте!</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/547143238651249/</t>
+          <t>https://www.facebook.com/groups/628166398095556/</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Участники: 55 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Водители, будьте на дороге бдительны и внимательны! #Uyda Qoling! #Оставайтесь Дома!</t>
+          <t>Участники: 8,3 тыс.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Только здесь серьезные знакомства, построение отношений и создание семьи! Эта группа только для серьёзных отношений !!!</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Объявления в Ташкенте</t>
+          <t>Reklama.uz (Купи-продай Ташкент)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/uztorg/</t>
+          <t>https://www.facebook.com/groups/1671698223064559/</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Участники: 60 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Объявления частных лиц и организаций Ташкента, с ценами, фото и контактной информацией. Вступай в группу чтобы не потерять.</t>
+          <t>Участники: 30 тыс.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Доска бесплатных объявлений! </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -1354,295 +1524,350 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Realty Tashkent</t>
+          <t>КУПИ-ПРОДАЙ.Товары со всего мира. Ташкент.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/RealtyTashkent/</t>
+          <t>https://www.facebook.com/groups/258619470971622/</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Участники: 13 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Realty Tashkent Недвижимость в Ташкенте</t>
+          <t>Участники: 48 тыс.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t xml:space="preserve">В данной группе публикуются купля и торговля товаров со всех стран мира. Удачи всем! </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Аренда квартир в Ташкенте</t>
+          <t>Врачи Ташкента</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/ardom35/</t>
+          <t>https://www.facebook.com/groups/vrachitashkenta/</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Участники: 1 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>«Аренда квартир в Ташкенте» - это бесплатное объявление аренда недвижимостью только по Ташкенту. @ ПРАВИЛА ГРУППЫ @: В группе категорически запрещено: 1. Оскорбление участников 2. Использование ненормативной лексики 3. Разжигание межнациональной и религиозной розни 4. Публикация коммерческой рекламы, ссылки на другие группы 5. А также публикация материалов, содержащих эротику и порнографию! • Соблюдайте правила элементарной вежливости. Все комментарии, содержащие оскорбления в любой форме будут безжалостно удаляться. Судьба нарушителей – «Черный список»!!! Канал в Telegram Аренда: https://t.me/dom_35</t>
+          <t>Участники: 129 тыс.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6 публикаций в неделю</t>
+          <t>Врачи Ташкента - это группа для поиска нужных, грамотных и компетентных специалистов- врачей разных профилей в Ташкенте и не только. В Группе также проводится просветительская и информативная деятельность. ВНИМАНИЕ! Рекомендации, полученные в группе нельзя расценивать как назначения. Вся информация носит только рекомендательный характер и предназначена только для повышения грамотности. Это НЕ руководство к действию. Давайте сохранять доброжелательную атмосферу в группе, СОБЛЮДАТЬ ПРАВИЛА ГРУППЫ и Проявлять ВЗАИМОУВАЖЕНИЕ! ПРАВИЛА ГРУППЫ НЕОБХОДИМО ПРОЧИТАТЬ сразу ПОСЛЕ ВСТУПЛЕНИЯ в группу, по этой ссылке: https://www.facebook.com/groups/vrachitashkenta/permalink/1432629326793411/ РЕКОМЕНДУЕМ ПОДПИСАТЬСЯ: НАША СТРАНИЦА НА ФБ, где вы можете найти много полезного для себя: https://www.facebook.com/VrachiTashInternational/ НАШ КАНАЛ В ТЕЛЕГРАММ: https://t.me/VrachiTashkenta_Telegram Админы и Модераторы: Dildora Sekler (к.м.н., вирусолог, специалист по молекулярно-генетическим исследованиям) Азизахон Ходжаева (к.м.н., врач-инфекционист, гепатолог, иммунолог), Лидия Гутникова (врач-невролог, терапевт, закончила резидентуру США) Николай Давис (врач- инфекционист-паразитолог. Резидентура США) Абдурахим Тойчиев (к.м.н. врач- инфекционист- паразитолог, гастроэнтеролог)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tashkent developers</t>
+          <t>Продай всё (Ташкент)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tasdev/</t>
+          <t>https://www.facebook.com/groups/570738587089469/</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Участники: 1,4 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Группа для профессионального общения программистов и работников сферы IT Ташкента. Дружеская атмосфера, обмен опытом, взаимопомощь по мере возможностей. Реклама, спам и оффтоп запрещены. ----- ВАКАНСИИ ----- ПОЖАЛУЙСТА, не размещайте вакансии в этой группе. Специально для вакансий в Software Development и смежных областях была создана группа tasdev.jobs: https://www.facebook.com/groups/tasdev.jobs/ ----- ДОКЛАДЫ ----- У нас есть возможность и желание организовывать оффлайн-мероприятия, доклады и воркшопы. Если ты можешь прочитать доклад на интересующую тебя тему, напиши об этом в группе или в личные сообщения администрации. Обязательно найдутся другие люди, которые с радостью послушают.</t>
+          <t>Участники: 17 тыс.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Публикаций в год: 8</t>
+          <t>Группа создана исключительно в интересах покупателя - товар в наличии, цена при товаре.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Квартиры в Ташкенте</t>
+          <t>ОТДАМ ДАРОМ,ПРИМУ В ДАР(Ташкент)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/281140502050492/</t>
+          <t>https://www.facebook.com/groups/luiza19850512/</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Участники: 32 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Добавляйте свои объявления о купле-продаже, аренде квартир в городе Ташкенте и Ташкентской области. ОБЯЗАТЕЛЬНО УКАЗЫВАТЬ ЦЕНЫ И КОНТАКТЫ !!! Оставляйте комментарии, отзывы, для помощи других участников. Участникам необходимо оставлять контакты (телефоны, E-mail, "написать в личное сообщение") для дополнительной информации, предполагаемую цену продажи/аренды, указать собственника недвижимости. НЕ БОЛЕЕ 3х объявлений! РЕКЛАМА риэлторских услуг - БЛОКИРУЕТСЯ и участник УДАЛЯЕТСЯ При изменении условий/продажи/отмены, просим участников своевременно изменять/удалять свои объявления. Администрация группы не несет ответственность за достоверную и полную информацию, предоставляемую участником. Жалобы и претензии на размещенную участниками объявления, можете отметить в правом верхнем углу поста!  Более 3 жалоб на участника/объявление, рассматривается дальнейшее участие в группе нарушителя. Будьте взаимно вежливы!</t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2 публикации в день</t>
+          <t>Дорогие участники и участницы!Добро пожаловать в группу! У всех у нас дома может завалиться где нибудь вещи,одежда,обувь,мебель,...и т.д. Теперь у вас есть возможность одовать даром,подарить!</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Казахи Ташкента</t>
+          <t>Ищу тебя. Ташкент</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/418182328355358/</t>
+          <t>https://www.facebook.com/groups/ishyutebya.tashkent/</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Участники: 2 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 6,9 тыс.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Здесь мы будем публиковать Ваши сообщения о поиске человека. Если вы где-то увидели человека, но не смогли подойти и познакомиться по каким-то причинам, то Вы можете попробовать найти его, описав свою историю. Желаем удачи в поиске нужного Вам человека!</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ISH BOR</t>
+          <t>Знакомства Ташкент</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/223144782158976/</t>
+          <t>https://www.facebook.com/groups/1183138595489835/</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Участники: 3,9 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 3 тыс.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Здесь можно Искать сваю сваю сюдьбу. Канал телеграмм https://t.me/znakomsstvoo Групп тг https://t.me/znakomsstvooo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Недвижимость в ТАШКЕНТЕ )))</t>
+          <t>Массажистки Ташкента</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/777362509046123/</t>
+          <t>https://www.facebook.com/groups/242315444225091/</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Участники: 558</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Это группа создана для продажи или аренды квартир и домов.Приглашайте друзей чем больше нас тем больше информации в группе.</t>
+          <t>Участники: 2,2 тыс.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t>Группа мастеров массажа из города Ташкента!</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Публикаций в месяц: 8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Tashkent State Dental Institute</t>
+          <t>Потребитель.Уз</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tsdi.official/</t>
+          <t>https://www.facebook.com/groups/Potrebitel.Uz/</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Участники: 4,5 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Официальная страница Ташкентского государственного стоматологического института. Official page of Tashkent state dental institute. www.tdsi.uz</t>
+          <t>Участники: 272 тыс.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2 публикации в день</t>
+          <t>ПРАВИЛА ГРУППЫ и ее описание: http://potrebiteli.uz/rules Участникам без имени и фамилии в профиле, во вступлении в группу будет отказано. Читайте правила Фейсбук: https://www.facebook.com/help/112146705538576 О группе: Потребитель.Уз - сообщество потребителей товаров и услуг на территории Узбекистана. Официальный канал новостей сообщества в приложении Telegram https://telegram.me/potrebitel_uz Телеграм отдела рекламы +998974003582 (отвечает только по вопросам рекламы на ресурсах Потребители) __________ Основные разделы: Задать вопрос администрации группы. Чат (с компа) https://www.facebook.com/groups/553693881324624/chats/4952054524839191 Чат с мобильного: зайдите в группу, и под названием группе кнопка "Чат" Буду хвалить! https://www.facebook.com/groups/Potrebitel.Uz/permalink/1400222523338418/ Объявления об акциях и скидках: https://www.facebook.com/groups/Potrebitel.Uz/permalink/774035295957147/ Анонсы общественных мероприятий: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271101939583811/ Тема для потеряшек: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271093102918028/ Кто летит? С кем передать? https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271097642917574/ Список полезных людей: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271088382918500/ Тема для пристройства животных: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271094426251229/ Просьбы о благотворительности: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271091699584835/ Тема для пропавших или найденных животных: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271099906250681/ Комиссионка: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271105586250113/ Недвижимость: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1271106826249989/ Работа https://www.facebook.com/groups/Potrebitel.Uz/permalink/1276641685696503/ Акции и скидки: https://www.facebook.com/groups/Potrebitel.Uz/permalink/1273389996021672/ Не в тему https://www.facebook.com/groups/Potrebitel.Uz/permalink/1276669775693694/ Поиск файлов https://www.facebook.com/groups/Potrebitel.Uz/permalink/1276683629025642/ Совместные заказы https://www.facebook.com/groups/Potrebitel.Uz/permalink/1496071127086890/ Тема для юмора https://www.facebook.com/groups/Potrebitel.Uz/permalink/1276625765698095/ Предложить Telegramm канал https://www.facebook.com/groups/Potrebitel.Uz/permalink/1894947510532581/</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>✔ Zor.uz (TashkenT)</t>
+          <t>УСЛУГИ ТАШКЕНТ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/534482063410021/</t>
+          <t>https://www.facebook.com/groups/631396497331869/</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Участники: 1 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">продажа покупка реклама объявления </t>
+          <t>Участники: 2,2 тыс.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6 публикаций в день</t>
+          <t>Присоединяйтесь в группу �� � Здесь вы найдете различных мастеров �� � Бесплатная подача объявления о ваших услугах � � Продажа в рекламные дни � Добавляйтесь � http://t.me/uslugitashkent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ремонт квартир в Ташкенте</t>
+          <t>Знакомства по Ташкенту.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/2003812596511019/</t>
+          <t>https://www.facebook.com/groups/566838416782309/</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Участники: 2,3 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ремонта квартиры «под ключ» - это общепринятый термин, который означает выполнение комплекса капитальных ремонтно-строительных работ, включающих замену оконных и дверных конструкций, систем отопления, канализации и водоснабжения, укладку нового напольного покрытия, оформление потолка, поклейку обоев или покраску стен. Также под этим термином понимается выполнение отделочных, сантехнических и электромонтажных работ, а в конце – чистовая уборка и вывоз строительного мусора.</t>
+          <t>Участники: 354</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3 публикации в день</t>
+          <t>все родился с партнёрами и вам тоже надо найти свою судьбу.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Недвижимость Ташкент</t>
+          <t>Torg.uz (Uzbekistan) Торгуем тут. Объявления в Ташкенте. Барахолка Уз</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/508795089272034/</t>
+          <t>https://www.facebook.com/groups/uzbuy/</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Участники: 4,9 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">группа «Недвижимость Ташкент» . Объявления о продаже, покупке и аренде недвижимости по городу Ташкент. Основные правила: Запрещается использовать в объявлениях информацию рекламного характера, ссылки на сайты, документы. Запрещается размещение дубликатов объявлений в одном разделе. Продлевать срок размещения объявлений и поднимать объявления в списке разрешается не чаще 1 раза в сутки. Информация, указанная в объявлении, должна соответствовать разделу. Администрация группы вправе без ведома пользователей удалять объявления, содержащие ложные или устаревшие данные. При размещении объявлений Пользователь отвечает за информацию, размещаемую им, и за последствия ее размещения. Срок их использования группой неограничен и определяется самостоятельно Пользователем. Администрация группы не несёт никакой ответственности за информацию, переданную Пользователем с помощью группы, и не контролирует её точность, полноту и достоверность ни при каких обстоятельствах. Правила модерирования объявлений: 1. Все объявления в группе «Недвижимость Ташкент» проходят премодерацию (проверку на соответствие правилам) в течение 24 часов. 2. Все объявления, размещаемые в группе «Недвижимость Ташкент», модерируются в соответствии с Правилами размещения объявлений. 3. В случае если модератор отклонил объявление как не соответствующее Правилам, Пользователь имеет возможность исправить его и снова отправить на проверку модератору. 4. В случае, если размещаемые объявления расцениваются модератором как спам, то такие объявления удаляются, а Пользователь лишается прав доступа к группе. 5. Администрация оставляет за собой право без объяснения причины блокировать доступ пользователям к группе. </t>
+          <t>Участники: 23 тыс.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
+        <is>
+          <t>Бесплатная доска объявлений в Узбекистане. Здесь вы можете быстро купить, продать либо обменять любые вещи.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -1651,25 +1876,30 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
+          <t>Недвижимость в Ташкенте (Квартиры Дома, Коммерческая недвижимость)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/547151152108989/</t>
+          <t>https://www.facebook.com/groups/tashkentrealty/</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Участники: 12 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Купля продажа аренда недвижимости.</t>
+          <t>Участники: 47 тыс.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>Недвижимость в Ташкенте: - Квартиры, Дома, Дачи, Коммерческая недвижимость. - Покупка, продажа, аренда, обмен, полезные статьи  Правила публикации объявлений: 1. Автор объявления - Контактное лицо 2. Контактные данные автора объявления 3. Адрес предлагаемой недвижимости 3. Кол-во комнат, кв2, этажность. 4. С ремонтом/ Без ремонта 5. Дополнительные платежи (если есть) 6. Стоимость недвижимости 8. Фото недвижимость ЕСЛИ ХОТИТЕ ЧТОБЫ ВАША РЕКЛАМА ЗАКРЕПИЛАСЬ НАВЕРХУ, ТО ДВА ДНЯ КРЕПЛЕНИЯ СТОИТ ДОБАВЛЕНИЯ 30 ДРУЗЕЙ. ЗАПРЕЩАЕТСЯ! - Публикация объектов от маклерских компаний и частных маклеров. Удаляются с блокадой: - посты и реклама, не соответствующие тематике группы; - провокационные публикации, направленные на отдельных пользователей; - посты, разжигающие национальные, религиозные и политические розни; - публикации, нарушающие Правила Facebook; - ссылки на сторонние новостные СМИ, за исключением тех, которые соответствуют тематике группы. В случае несогласия с Правилами группы или если вы считаете, что чей-то пост или высказывания другого участника нарушают этику или Правила группы вы можете воспользоваться кнопкой "Пожаловаться" Администратору вверху поста.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -1678,378 +1908,448 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Родной Ташкент эски шахар</t>
+          <t>Знакомства в реале. Узбекистане💝💘</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/251641519412207/</t>
+          <t>https://www.facebook.com/groups/5025934554084104/</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Участники: 1,5 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Фотографии, публикации и видеоролики о родном Ташкете,</t>
+          <t>Участники: 9 тыс.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10 публикаций в неделю</t>
+          <t xml:space="preserve">Добро пожаловать </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Foreigners in Tashkent today</t>
+          <t>Торгуем тут! (ташкент)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/3413693002081786/</t>
+          <t>https://www.facebook.com/groups/1263164573729339/</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Участники: 36</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Welcome to post your information FREE OF CHARGE</t>
+          <t>Участники: 2,7 тыс.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2 публикации в неделю</t>
+          <t xml:space="preserve">Мебель и всё что связано с мебелью. </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Недвижимость: Ташкента</t>
+          <t>Дачник.уз</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tashkent.nedvizhimost/</t>
+          <t>https://www.facebook.com/groups/dachnik.uz/</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Участники: 21 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Правила группы - Недвижимость Ташкента №1 Направления группы: - квартиры ; - дома ; - коммерческая недвижимость. 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. Размещать не более 15 разных объявлений в неделю. 3. Запрещено размещать одно и тоже объявление несколько раз. 4. Разрешено одно поднятие объявления в неделю. Цели : - продажа ; - покупка ; - аренда ; - обмен ; - консультации. Правила группы: 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. При добавлении недвижимости необходимо указать: - Цель (Продажа/Покупка/Аренда/Обмен) - Количество комнат/этаж/сколько этажей в доме/площадь участка? - Где? (адрес квартиры с ориентиром) - Фото обязательно или план - Прочее описание (желательно) - Цена (обязательно - Контакты - Кто? (Автор объявления - Владелец/Риэлтор) (обязательно) * Все вышеуказанные пункты обязательны, объявления, не содержащие данную информацию могут быть удалены. 3. Запрещено размещение не тематических публикаций, не связанных с тематикой группы. Пользователи, нарушившие данное правило, будут удалены. 4. Запрещается размещение рекламы одежды, бытовой техники, смартфонов и т.д. 6. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. 7. Запрещено использование ненормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 8. Разрешено размещать только рекламу по недвижимости (за исключением автомототранспортного средства). </t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Группа Дачник.Уз объединяет поклонников дачного труда и отдыха на территории Узбекистана. Здесь можно: - Обмениваться опытом; - Рассказывать, как у вас обустроено, посажено и т.д. - Спрашивать совета; - Рассказывать, где что купить и почем; - Хвастаться фотографиями собственноручно выращенных цветочков и сколоченных скамеек; - Мериться бассейнами и помидорами; В общем: сад, дача, огород, плов, шашлык, посадка, прополка ...</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Toshkent va Toshkentliklar / Ташкент и Ташкентцы</t>
+          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/912891669275828/</t>
+          <t>https://www.facebook.com/groups/547151152108989/</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Участники: 853</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уважаемые Ташкентцы добавляем фото, исторические факты нашего любимого города. Хурматлик Тошкентликлар она шахримизни фотосуратларини ва тарихий воқеликларини қуйиб борамиз. </t>
+          <t>Участники: 12 тыс.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5 публикаций в день</t>
+          <t>Купля продажа аренда недвижимости.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Курсы в Ташкенте</t>
+          <t>НАШ РОДНОЙ ТТЗ (ТАШКЕНТ)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/464218040450451/</t>
+          <t>https://www.facebook.com/groups/320098461730000/</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Участники: 4,9 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Цель данной группы: информировать людей о предстающих курсах, которые будут проводиться в Ташкенте.</t>
+          <t>Участники: 19 тыс.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>20 публикаций в неделю</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tashkent Designers/Дизайнеры Ташкента</t>
+          <t>Барахолка объявления Ташкент</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tashkent.designers/</t>
+          <t>https://www.facebook.com/groups/1858378124281822/</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Участники: 496</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Группа создана для тружеников графического и изобразительного искусства - веб-дизайнеров, иллюстраторов, мультипликаторов и др. Здесь Вы можете размещать свои работы, искать заказчика или исполнителя. Делитесь впечатлениями и новостями из мира искусства! Правила общения. Выборочная реклама на сторонние ресурсы с похожей тематикой находятся в ленте ограниченное количество времени. В публикациях и комментариях строго запрещается нецензурная лексика, оскорбления, публикации не по теме. Одинаковые комментарии под каждым постом со ссылками на сторонние сайты будут удаляться. </t>
+          <t>Участники: 1,3 тыс.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Публикаций в год: 10</t>
+          <t xml:space="preserve">https://obiavo.uz/tashkent/ У нас можно продать все что угодно. Клуб бесплатных объявлений города Ташкент создан на благих началах для помощи всем пользователям! Будем очень рады вашим сообщениям! </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TOSHKENT MOLIYA INSTITUTI (Tashkent Institute Of Finance)</t>
+          <t>✔ Продажа, Покупка и Обмен (Объявления в Ташкенте)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tfinews/</t>
+          <t>https://www.facebook.com/groups/817839511659804/</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Участники: 11 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Все из жизни института, самые свежие новости и объявления, мероприятия и конкурсы, а также многое другое можно будет увидеть на данной страничке. _____________________________________ Institut hayoti, unda bo'layotgan tadbirlar va tanlovlar, hamda boshqa barcha ma'lumotlarni shu sahifada korishingiz mumkun bo'ladi.</t>
+          <t>Участники: 48 тыс.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2 публикации в неделю</t>
+          <t>Группа создана для размещения ваших объявлений</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Без посредников  Недвижимость Ташкент</t>
+          <t>МОЙ ТАШКЕНТ</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/573437529426067/</t>
+          <t>https://www.facebook.com/groups/3843601015697990/</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Участники: 19 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 426</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t xml:space="preserve">Посвящена моему родному городу Ташкент </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>REAI ESTATE IN TASHKENT</t>
+          <t>Торг.уз Ташкент</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/rieltor2016/</t>
+          <t>https://www.facebook.com/groups/905020179568724/</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Участники: 20 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Недвижимость; квартиры; новостройки; офис; дом; продажа; купить; агентство; риэлтор; Ташкент; центр; Окажем содействие купли-продажи нежвижимости</t>
+          <t>Участники: 1 тыс.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5 публикаций в день</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ТАШКЕНТСКАЯ НЕДВИЖИМОСТЬ ( Купля-Продажа,Аренда квартир в г. Ташкенте)</t>
+          <t>Ташкент все из дома торг.уз</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1602124636703442/</t>
+          <t>https://www.facebook.com/groups/447512702741820/</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Участники: 17 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уважаемые Участники рады приветствовать Вас в Нашей группе!!! В данной группе Вы можете разместить Своё объявление о следующем: 1.	Продажа. 2.	Купля (Покупка). 3.	Аренда. 4.	Обмен (Мена). 5.	Консультация ( Вопрос-Ответ). ОБЪЕКТЫ РЕКЛАМЫ: *Квартиры и комнаты *Дома, дачи и участки *Коммерческая недвижимость *** Объявления не соответствующие целям группы будут УДАЛЕНЫ!!! ПРАВИЛА ГРУППЫ: При добавлении объявления необходимо указать: --Продажа, Купля (Покупка), Аренда( *Сдаю,Сниму* ), Обмен (Мена). --Адрес (точный,либо ориентир). --Количество комнат, этаж, этажность дома. --Общая площадь. --Фотографии объекта (желательно). --Состояние (ремонт). --Цена объекта. --Контактный номер телефона. --Автор объявления ( Владелец/Риэлтор (Посредник). Все вышеуказанные пункты ОБЯЗАТЕЛЬНЫ при добавлении Вашего объявления!!!!! Объявления не соответствующие данным пунктам будут УДАЛЕНЫ без предупреждения!!! *Разрешено поднимать объявление ОДИН раз в день! ЗАПРЕЩЕНО: 1. Размещать одно и тоже объявление ПОВТОРНО! 2. Реклама Агентств Недвижимости, Риэлторских услуг! 3. Оскорблять участников группы  ( Уважайте друг друга)! 4. Размещать ссылки других сайтов, каналов, групп, страниц и их рекламы! ****Администрация группы не несёт ответственность за полную и достоверную информацию, предоставленную автором объявления. ВСЕМ УЧАСТНИКАМ ГРУППЫ ЖЕЛАЕМ УДАЧНОЙ И ВЫГОДНОЙ РЕАЛИЗАЦИИ ОБЪЕКТА!!! С УВАЖЕНИЕМ АДМИНИСТРАЦИЯ ГРУППЫ!!!!!! Ссылка на Нашу группу в Фейсбуке  "АРЕНДА НЕДВИЖИМОСТИ В ТАШКЕНТЕ", присоединяйтесь, размещайте свои объявления! https://www.facebook.com/groups/909240042491461/?ref=bookmarks Ссылка на Нашу группу в Фейсбуке  "ТАШКЕНТСКАЯ НЕДВИЖИМОСТЬ", присоединяйтесь, размещайте свои объявления! https://www.facebook.com/groups/1602124636703442/about/ Ссылка на Нашу страницу в Фейсбуке "Недвижимость в г. Ташкенте" fb.me/AlenaRieltor2512 Наш канал в телеграм: @RealPropertyTashkent </t>
+          <t>Участники: 1,5 тыс.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t xml:space="preserve">здравствуйте здесь куплю продажа товаров для дома мебель стенка спальные гарнитуры кухня газовая плита холодильник телевизор кондиционер ковры палас </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>30 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Uzbekistan Airways Technics</t>
+          <t>Недвижимость Ташкент</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/535512496811934/</t>
+          <t>https://www.facebook.com/groups/508795089272034/</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Участники: 1,1 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Итак, решил создать данную группу, так как проработал на предприятии 24 незабываемых года. Работал с многими интересными, талантливыми людьми, профессионалами своего дела включая от слесаря до директора. Делитесь своими воспоминаниями, впечатлениями, эмоциями. Обсуждайте различные темы. И дай Бог процветания нашему родному предприятию"Uzbekistan Airways Technical (завод 243 ГА). Счастья, удачи всем кто здесь работал и продолжает работать. Я Думаю, что нам есть о чем поговорить✌😎🛫</t>
+          <t>Участники: 4,9 тыс.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10 публикаций в неделю</t>
+          <t xml:space="preserve">группа «Недвижимость Ташкент» . Объявления о продаже, покупке и аренде недвижимости по городу Ташкент. Основные правила: Запрещается использовать в объявлениях информацию рекламного характера, ссылки на сайты, документы. Запрещается размещение дубликатов объявлений в одном разделе. Продлевать срок размещения объявлений и поднимать объявления в списке разрешается не чаще 1 раза в сутки. Информация, указанная в объявлении, должна соответствовать разделу. Администрация группы вправе без ведома пользователей удалять объявления, содержащие ложные или устаревшие данные. При размещении объявлений Пользователь отвечает за информацию, размещаемую им, и за последствия ее размещения. Срок их использования группой неограничен и определяется самостоятельно Пользователем. Администрация группы не несёт никакой ответственности за информацию, переданную Пользователем с помощью группы, и не контролирует её точность, полноту и достоверность ни при каких обстоятельствах. Правила модерирования объявлений: 1. Все объявления в группе «Недвижимость Ташкент» проходят премодерацию (проверку на соответствие правилам) в течение 24 часов. 2. Все объявления, размещаемые в группе «Недвижимость Ташкент», модерируются в соответствии с Правилами размещения объявлений. 3. В случае если модератор отклонил объявление как не соответствующее Правилам, Пользователь имеет возможность исправить его и снова отправить на проверку модератору. 4. В случае, если размещаемые объявления расцениваются модератором как спам, то такие объявления удаляются, а Пользователь лишается прав доступа к группе. 5. Администрация оставляет за собой право без объяснения причины блокировать доступ пользователям к группе. </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ВРАЧИ  ТАШКЕНТА</t>
+          <t>Торгуем тут! (Ташкент)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/221390174911720/</t>
+          <t>https://www.facebook.com/groups/1073755569328700/</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Участники: 34 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 1 тыс.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Дорогие участники читайте пожалуйста правила группы Торгуем тут (Ташкент): 1. В группе запрещена реклама сторонних сайтов и групп, компаний. Запрещено размещение ссылок в объявление ведущие на другие сайты, группы.Реклама проектов и программ сетевого и интернет маркетинга,финансовые маркетинги и т.д. не публикуются! 2. Запрещено размещать одно и тоже объявление несколько раз. 3. Разрешено одно поднятие объявления в неделю. 4. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. 5. Запрещено использование не нормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 6. При изменении условий/продажи/отмены, просим участников своевременно изменять/удалять свои объявления. 7.Объявления с фотографиями без цен, комментарий будут удаляться. 8.СПАМЕРЫ блокируются и удаляются из группы незамедлительно. -.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-.-. Администрация группы не несет ответственность за достоверную и полную информацию, предоставляемую участником. -Жалобы и претензии на размещенную участниками объявления, можете отметить в правом верхнем углу поста! Более 3 жалоб на участника/объявление, рассматривается дальнейшее участие в группе нарушителя!</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Аренда квартир в Ташкенте</t>
+          <t>Медики Ташкента</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1647978165496858/</t>
+          <t>https://www.facebook.com/groups/tashkent.medics/</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Участники: 1,9 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 9,3 тыс.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t xml:space="preserve">Ответы на вопросы участников </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Tashkent Expat Community</t>
+          <t>Знакомства В Ташкенте</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/741615396187925/</t>
+          <t>https://www.facebook.com/groups/1738598219736211/</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Участники: 2,1 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helpful information on Tashkent for foreigners, expats. </t>
+          <t>Участники: 2,3 тыс.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8 публикаций в неделю</t>
+          <t xml:space="preserve">Ищем свою половинку знакомимся с Администрацией </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7 публикаций в день</t>
         </is>
       </c>
     </row>
@@ -2066,15 +2366,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t xml:space="preserve">Общедоступная группа </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Участники: 7,8 тыс.</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Продажа, аренда недвижимости Ташкента</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -2083,349 +2388,414 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Аренда по Ташкенту</t>
+          <t>Торгуем (Ташкент)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1048267509290915/</t>
+          <t>https://www.facebook.com/groups/1582175495368762/</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Участники: 266</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Аренда по Ташкенту </t>
+          <t>Участники: 70 тыс.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t xml:space="preserve">Группа: Торгуем (Ташкент) - Продавайте и покупайте товары с удовольствием! НЕТ назойливой рекламы, параноидальных ограничений, и прочего. Простые правила. Приятных продаж и покупок.  </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Недвижимость по Ташкенту и Ташкентской области. (покупка, продажа,аренда)</t>
+          <t>Мой Ташкент</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/5097345756945590/</t>
+          <t>https://www.facebook.com/groups/2996945800370800/</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Участники: 555</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 2 тыс.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t xml:space="preserve">Группа создана для общения людей любящих Узбекистан всем сердцем и душой. Приглашаем адекватных, интеллигентных, любящих свою родину людей не зависимо от национальностей и вероисповедания. Всех других терпеть не будем. </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ВСЁ ДЛЯ ВСЕХ.UZ (Tashkent)</t>
+          <t>Живой Ташкент!</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1767740693490159/</t>
+          <t>https://www.facebook.com/groups/jivtash/</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Участники: 26 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Недвижимость, Автомобили, Телефоны и связь, Компьютеры, Бытовая техника, Фото и Фотоаппараты, Мебель и Интерьер, Оборудование, Отдам Даром, Услуги, Работа и Обучение, Строительство и Ремонт, Спорт, Отдых, Туризм, Бизнес и Тендеры, Одежда и Аксессуары, Всё для Детей, Красота и здоровье, Подарки и Сувениры, Животные и Растения, Разное</t>
+          <t>Участники: 1,1 тыс.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10+ публикаций в день</t>
+          <t>Группа для тех, кто считает, что Ташкент - жив! Для тех, кто готов не молчать, а говорить об этом! Говорить и о проблемах, и о достоинствах города!</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Toshkent tumani hokimligi | Хокимият Ташкентского района</t>
+          <t>Знакомства Для Одиноких Сердец в Ташкенте</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1993049590974990/</t>
+          <t>https://www.facebook.com/groups/245640940151269/</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Участники: 1,4 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Ушбу саҳифа Тошкент тумани ҳокимлиги фаолиятини кенг ёритиб бориш, фуқаролар билан мулоқотда янада қулайлик яратиш мақсадида ташкил этилган. Саҳифа Тошкент тумани ҳокимлиг Ахборот хизмати томонидан юритилади.</t>
+          <t>Участники: 5,8 тыс.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2 публикации в день</t>
+          <t>Это новая группа посвящена для одиноких сердец кто реально хочет найти свою половинку ... Присоединяйтесь общайтесь и найдите свою истинную любовь.!!!</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Tashkent Flats Apartments for Rent in Uzbekistan</t>
+          <t>ВРАЧИ  ТАШКЕНТА</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/268724738366149/</t>
+          <t>https://www.facebook.com/groups/221390174911720/</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Участники: 1,7 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Участники: 34 тыс.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>Нет данных</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Мебель в Ташкенте</t>
+          <t>ТАШКЕНТСКАЯ НЕДВИЖИМОСТЬ ( Купля-Продажа,Аренда квартир в г. Ташкенте)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1408029736162799/</t>
+          <t>https://www.facebook.com/groups/1602124636703442/</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Участники: 2,1 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Группа для производителей мебели, а так же объявления о мебели на заказ в Ташкенте.</t>
+          <t>Участники: 17 тыс.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2 публикации в день</t>
+          <t xml:space="preserve">Уважаемые Участники рады приветствовать Вас в Нашей группе!!! В данной группе Вы можете разместить Своё объявление о следующем: 1.	Продажа. 2.	Купля (Покупка). 3.	Аренда. 4.	Обмен (Мена). 5.	Консультация ( Вопрос-Ответ). ОБЪЕКТЫ РЕКЛАМЫ: *Квартиры и комнаты *Дома, дачи и участки *Коммерческая недвижимость *** Объявления не соответствующие целям группы будут УДАЛЕНЫ!!! ПРАВИЛА ГРУППЫ: При добавлении объявления необходимо указать: --Продажа, Купля (Покупка), Аренда( *Сдаю,Сниму* ), Обмен (Мена). --Адрес (точный,либо ориентир). --Количество комнат, этаж, этажность дома. --Общая площадь. --Фотографии объекта (желательно). --Состояние (ремонт). --Цена объекта. --Контактный номер телефона. --Автор объявления ( Владелец/Риэлтор (Посредник). Все вышеуказанные пункты ОБЯЗАТЕЛЬНЫ при добавлении Вашего объявления!!!!! Объявления не соответствующие данным пунктам будут УДАЛЕНЫ без предупреждения!!! *Разрешено поднимать объявление ОДИН раз в день! ЗАПРЕЩЕНО: 1. Размещать одно и тоже объявление ПОВТОРНО! 2. Реклама Агентств Недвижимости, Риэлторских услуг! 3. Оскорблять участников группы  ( Уважайте друг друга)! 4. Размещать ссылки других сайтов, каналов, групп, страниц и их рекламы! ****Администрация группы не несёт ответственность за полную и достоверную информацию, предоставленную автором объявления. ВСЕМ УЧАСТНИКАМ ГРУППЫ ЖЕЛАЕМ УДАЧНОЙ И ВЫГОДНОЙ РЕАЛИЗАЦИИ ОБЪЕКТА!!! С УВАЖЕНИЕМ АДМИНИСТРАЦИЯ ГРУППЫ!!!!!! Ссылка на Нашу группу в Фейсбуке  "АРЕНДА НЕДВИЖИМОСТИ В ТАШКЕНТЕ", присоединяйтесь, размещайте свои объявления! https://www.facebook.com/groups/909240042491461/?ref=bookmarks Ссылка на Нашу группу в Фейсбуке  "ТАШКЕНТСКАЯ НЕДВИЖИМОСТЬ", присоединяйтесь, размещайте свои объявления! https://www.facebook.com/groups/1602124636703442/about/ Ссылка на Нашу страницу в Фейсбуке "Недвижимость в г. Ташкенте" fb.me/AlenaRieltor2512 Наш канал в телеграм: @RealPropertyTashkent </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CouchSurfing Tashkent</t>
+          <t>Куплю-Продам (Ташкент)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1023602661057962/</t>
+          <t>https://www.facebook.com/groups/1912530355731351/</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Участники: 786</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Couchsurfers of Tashkent, with common passion for travel, adventure, history, culture, languages, cuisine, and desire to connect the people of the world using hospitality and a couch. "Participate in Creating a Better World, One Couch At A Time" </t>
+          <t>Участники: 866</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 2</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>National University of Uzbekistan named after Mirzo Ulugbek</t>
+          <t>Адвокаты и Юристы Ташкента. Узбекистан.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/MilliyUniversitet/</t>
+          <t>https://www.facebook.com/groups/advokatyuristuzb/</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Участники: 1,6 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Индекс: 100174 Страна: Узбекистан Город: ТАШКЕНТ Район: Алмазарский ул. УНИВЕРСИТЕТСКАЯ, 4 </t>
+          <t>Участники: 50 тыс.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 2</t>
+          <t>Добро пожаловать. Мы помогаем по юридическим вопросам. Наша цель - оказание помощи со стороны юристов и просто хороших людей тем, кто нуждается в ЮРИДИЧЕСКОЙ консультации. Соблюдайте правила группы. Будем рады новым участникам - тем кому нужна юридическая помощь. В юридических вопросах следует обращаться не к здравому смыслу, а к юристам. www.advokat-tashkent.uz</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
+          <t>Недвижимость в ТАШКЕНТЕ )))</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/665588176814815/</t>
+          <t>https://www.facebook.com/groups/777362509046123/</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Участники: 3,5 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 558</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Это группа создана для продажи или аренды квартир и домов.Приглашайте друзей чем больше нас тем больше информации в группе.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>золото в Ташкенте Узбекистан</t>
+          <t>ДАЙ ЛАПКУ! ТАШКЕНТ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/436005346587829/</t>
+          <t>https://www.facebook.com/groups/daylapku/</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Участники: 5,7 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Золото в Ташкенте Узбекистан. Золотые изделия цепочки, кольца, браслеты, обручалки. Выкладываем только золотые изделия. Прочии объявления будут удалятся и блокировать автора. Цены грамм и пробу желательно прикрепляйте под каждой фотографии. Так же пишите, интересуйтесь по whatsup / Telegram Тут можно купить золотые изделия а так же продать свое. Так же мы покупаем лом 583 / 585 пробы.  Контакты: Тел - +998933953580 Whatsup, Telegram, Viber - +99893 3953580 </t>
+          <t>Участники: 4,3 тыс.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>20 публикаций в неделю</t>
+          <t xml:space="preserve">ВСЕМ СОБАЧКАМ И КИСКАМ - ПО ДИВАНУ И МИСКЕ! </t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Новостройки Ташкента / Yangi Uylar</t>
+          <t>Недвижимость в Ташкенте</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/novostroyka/</t>
+          <t>https://www.facebook.com/groups/329294340843042/</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Участники: 4,5 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Центр новостроек Ташкента от застройщиков http://novostroyka.shahar.uz Канал в телеграм https://t.me/cityshahar Группа поддержки https://t.me/novostroyki_uz Проект Новостройки Ташкента посвящен первичному рынку недвижимость Ташкента. офис продаж: +(99871) 200-00-01 Ждем Вашего звонка с 09:00-19:00 - 0% комиссии от Покупателя; - цены от застройщика; - экспертная консультация клиентов по объекту строительства; - экспертная консультация по формам приобретения; - экспертная консультация по программам кредитования; - выезд на объект строительства и показ квартир; - юридическое сопровождение сделки #Новостройки #Ташкент#yangiuylar #Жилые комплексы #квартиры #новостройки #купить #продажа #покупка Все новостройки Ташкента с полным описанием жилых комплексов, планировок квартир и месторасположением жилого комплекса на карте http://novostroyka.shahar.uz #novostroykitashkenta #tashkent #kupitkvartiryvtashkente #prodatkvartiruvtashkente #купить</t>
+          <t>Участники: 2,3 тыс.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Публикаций в год: 10</t>
+          <t>Нет данных</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Summer Work and Travel 2021 Tashkent</t>
+          <t>Торгуем Тут! (ТАШКЕНТ)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/853915944631619/</t>
+          <t>https://www.facebook.com/groups/291266941368833/</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Участники: 4,7 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 19 тыс.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Группа для продажи, покупки и обмена товара, а так же для услуг населению в Ташкенте и не только!</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Квартиры в Ташкенте</t>
+          <t>Ищу работу в Ташкенте</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/kvartira.uz/</t>
+          <t>https://www.facebook.com/groups/165844980247044/</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Участники: 22 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Объявления о продаже, покупке, аренде квартир, домов, дач, земельных участков в Ташкенте. Подпишитесь, и вы ничего не пропустите.</t>
+          <t>Участники: 7 тыс.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
+        <is>
+          <t>Дорогие друзья! Данная группа создана для тех, кто находится в поисках работы. Убедительная просьба придерживаться следующих простых правил: 1. Будьте вежливы, уважайте себя и других; 2. Публикуясь - указывайте желаемую позицию или сферу деятельности; 3. Троллинг и оффтоп-сообщения удаляются вместе с участником без предупреждения.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>6 публикаций в день</t>
         </is>
@@ -2434,268 +2804,318 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Работа в Ташкенте, Узбекистане</t>
+          <t>Ташкент (Мы родом из Ташкента)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/982214648469055/</t>
+          <t>https://www.facebook.com/groups/116662463674574/</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Участники: 25 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уважаемые участники, группа создана для тех кто хочет трудоустроиться, найти работу, а так же для тех кто ищет сотрудников для своей компании. Запрещено размещать одно и тоже объявление несколько раз. Разрешено поднимать размещённое объявление не более одного раза в неделю. Количество объявлений доступных для размещения, для одного пользователя составляет не более 2 объявлений. Для получения возможности: - размещения более 2 объявлений - получение возможности доп. поднятий - закрепления объявления в топике группы - брендировании обложки - прямой рекламы и ссылки других групп, страниц. Обращайтесь к администрации группы. Объявления не имеющая отношения к нашей группе будут блокированы администратором. Просим вас соблюдать правила группы. </t>
+          <t>Участники: 633</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4 публикации в день</t>
+          <t>Тем , кто сердцем в Ташкенте</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>«My Little Tashkent / Мой Маленький Ташкент</t>
+          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ (официальная группа)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/561997617298443/</t>
+          <t>https://www.facebook.com/groups/nedvijimostvtashkente/</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Участники: 227</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Общедоступная группа для всех у кого в сердце вечно молодой и любимый ТАШКЕНТ!!! Убедительная просьба не публиковать посты про сбор денег, поиск кого-то и т.д. Только про наш любимый ТАШКЕНТ. Для остального есть целевые группы.</t>
+          <t>Участники: 58 тыс.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 5</t>
+          <t>Официальная группа «Недвижимость в Ташкенте» создана для размещения объявлений по городу Ташкент. Направления группы: - квартиры; - дома; - дачи; - коммерческая недвижимость. Цели: - продажа; - покупка; - аренда; - обмен; - вопросы-ответы; - консультации. Правила группы: 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. При добавлении недвижимости необходимо указать: - Цель (Продажа/Покупка/Аренда/Обмен) (кроме админа) - Количество комнат/этаж/сколько этажей в доме/площадь участка? - Где? (адрес квартиры с ориентиром) (кроме админа) - Фото (обязательно, хотя бы 1 фото) (кроме админа) - Прочее описание (желательно) (кроме админа) - Цена (обязательно) (кроме админа) - Контакты (желательно) (кроме админа) - Кто? (Автор объявления - Владелец/Риэлтор) (обязательно) * Все вышеуказанные пункты обязательны, объявления, не содержащие данную информацию могут быть удалены. 3. Запрещено размещение не тематических публикаций, не связанных с тематикой группы. Пользователи, нарушившие данное правило, будут предупреждены, далее, при повторном нарушении – удалены. 4. Запрещено размещать одно и тоже объявление несколько раз. 5. Разрешено одно поднятие объявления в неделю. (кроме админа) 6. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. (кроме админа) 7. Запрещено использование ненормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 8. При изменении условий/продажи/отмены, просим участников своевременно изменять/удалять свои объявления. (кроме админа) 9. Количество объявлений доступных для размещения, для одного пользоваться составляет 2 объявлений. --------------------------------------- Для получения возможности: -размещения более 2 объявлений. -получение возможности доп.поднятий. -закрепления объявления в топике группы. -брендировании обложки. -прямой рекламы и ссылки других групп, страниц. Обращайтесь к администрации группы. -Администрация группы не несет ответственность за достоверную и полную информацию, предоставляемую участником. -Жалобы и претензии на размещенную участниками объявления, можете отметить в правом верхнем углу поста! Более 3 жалоб на участника/объявление, рассматривается дальнейшее участие в группе нарушителя. Контактное лицо: https://www.facebook.com/umarali.norboyev</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tashkent  State  Technical University</t>
+          <t>ЖИВОТНЫЕ ТАШКЕНТА 😻🐶🐒🦄</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/UzbekistanTSTU/</t>
+          <t>https://www.facebook.com/groups/541564277077534/</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Участники: 720</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>This group for , who studied or graduated from Tashkent State Technical University</t>
+          <t>Участники: 908</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6 публикаций в неделю</t>
+          <t>И снова всем здравствуйте. Нашу группу закрыли, но мы снова с Вами😎 Добро пожаловать старым и новым участникам🤗🤗🤗</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Online shopping!!!!! (tashkent)</t>
+          <t>Аренда и продажа квартир в Ташкенте (1000kvartir.uz)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1387145834847540/</t>
+          <t>https://www.facebook.com/groups/1000kvartir.uz/</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Участники: 3,7 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 20 тыс.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Официальная группа по Аренде и Продаже квартир от 1000kvartir.uz Правила группы: 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления квартир в Ташкенте. 2. При добавлении квартиры необходимо указать: - Количество комнат/этаж/сколько этажей в доме/площадь участка? - Кто? (Автор объявления - Владелец/Риэлтор) - Где? (адрес квартиры с ориентиром) - Цена - Контакты - Фото - Прочее описание Все вышеуказанные пункты обязательны, объявления не содержащие данную информацию могут быть удалены. 3. Запрещено размещение не тематических публикаций, не связанных с тематикой группы. Пользователи нарушившие данное правило, будут удалены с группы. 4. Запрещено размещать одно и тоже объявление несколько раз. 5. Разрешено поднимать размещённое объявление не более одного раза в неделю. 6. Количество объявлений доступных для размещения, для одного пользователя составляет 3 объявления. Группа по недвижимости в telegram @tisyachikvartiruz</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>НЕДВИЖИМОСТЬ В ТАШКЕНТЕ</t>
+          <t>Массаж для тело и души</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/510296117390315/</t>
+          <t>https://www.facebook.com/groups/479533616282051/</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Участники: 49</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>🔝Самые горячие объявления по всему Ташкенту - Выгодная недвижимость! - Поможем продать и купить - Новостройки - вторичка - Самые востребованные районы и города Ташкента - Контакты Риэлторов :  - Фёдор +998997222523</t>
+          <t>Участники: 3,3 тыс.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Публикаций в год: 10</t>
+          <t>Общий оздоровитнльный Классика легкая Спортивный Лечебно комплексный Массаж с арома маслами Механическая чистка лица Депиляция время работы : с 10 утра 22.00 вечера</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1 публикация в год</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Новостройки Ташкента</t>
+          <t>Пешком по Ташкенту</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/new.home.tashkent/</t>
+          <t>https://www.facebook.com/groups/1202914729805956/</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Участники: 11 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Группа "Новостройки Ташкента" - Группа только для НОВОСТРОЕК, новых евродомов. Предлагайте и выбирайте варианты Новостроек Ташкента. - Публикуются только рекламы Новостроек (новостроенные квартиры, евродома, дачи, нежилые объекты) - Запрещается публикации Аренды/Сдачи - Запрещается реклама своих услуг, только целевая продажа новостроек - Разрешается только одна публикация и 1 поднятие в неделю. По всем вопросам телефон: +998935578721</t>
+          <t>Участники: 3,7 тыс.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10 публикаций в день</t>
+          <t>Приветствуем тебя, новый участник группы #Пешком_по_Ташкенту Если ты устал от социальных сетей и хочешь выйти на прогулку с близкими тебе по духу людьми, то эта группа для тебя! По воскресеньям мы гуляем по городу, знакомимся друг с другом, посещаем выставки, музеи, парки и ходим даже в поход! Поэтому, смело к нам присоединяйся: комментируй, ставь лайки, выкладывай фотографии и не забывай приглашать своих друзей, если они тоже любят пешие прогулки, хорошую компанию и позитивные незабываемые впечатления!</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MDIS Tashkent (Freedom of Ideas)</t>
+          <t>🙌 Массаж в Ташкенте🙌</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/452191764824902/</t>
+          <t>https://www.facebook.com/groups/MassageMansTashCity/</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Участники: 1,3 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 7,6 тыс.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Здравствуйте дамы и господа данная группа предназначена для поиска мастеров массажного искусства в городе Ташкент. Тут вы можете найти разных мастеров из разных районов города Ташкент! Реклама в данной группе на платной основе по всем вопросам обращаться в телеграмм к нашему боту: https://t.me//MMTCFbot</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7 публикаций в неделю</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>British Management University in Tashkent</t>
+          <t>Услуги в Ташкенте</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1111955775886312/</t>
+          <t>https://www.facebook.com/groups/443514199180539/</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Участники: 12</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 1,5 тыс.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Предоставление всяческих услуг по Ташкенту.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ТОШКЕНТ (TASHKENT)</t>
+          <t>Без посредников  Недвижимость Ташкент</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/57686142700/</t>
+          <t>https://www.facebook.com/groups/573437529426067/</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Участники: 185</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>The capital of the republic of Uzbekistan.</t>
+          <t>Участники: 19 тыс.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 5</t>
+          <t xml:space="preserve">ВНИМАНИЕ! Уважаемые участники, сообщаем Вам об ужесточении контроля за соблюдением правил группы! * Отныне нарушители не соблюдающие правила группы будут предупреждаться два раза, последующие нарушения - БАН. * Правила, на которые особенно стоит обратить внимание: 1. В группе запрещена реклама сторонних сайтов и групп, компаний. Запрещено размещение ссылок в объявление ведущие на другие сайты, группы. 2. Разрешается ОДНО (1) поднятие объявления в неделю. 3. Объявления с отсутствующей развернутой информацией будут также удаляться (Пример: "Куплю квартиру", "Возьму в аренду помещение", "Продается 2х-комнатная квартира" и т.п.). 4. Обязательно указывать № телефона в объявлении, либо указывать чтобы к вам обращались в ЛС (личное сообщение). Объявления без № телефона либо без указания, чтобы к Вам обращались в ЛС будут удалены. ----------------------------------------------------------------------------------------- Подробное описание группы и правил группы: «Недвижимость » в Узбекистане создана для размещения объявлений по городу в Узбекистане. Направления группы: - квартиры; - дома; - дачи; - коммерческая недвижимость. Цели: - продажа; - покупка; - аренда; - обмен; - вопросы-ответы; - консультации. Правила группы: 1. Запрещается размещение рекламы риэлторских (маклерских, агентских) услуг - исключительно объявления объектов. (Нельзя размещать объявления в виде рекламы своих агентств (ссылки, картинки и прочее)). 2. При добавлении недвижимости необходимо указать: - Цель (Продажа/Покупка/Аренда/Обмен) - Количество комнат/этаж/сколько этажей в доме/площадь участка? - Где? (адрес квартиры с ориентиром) - Фото (обязательно, хотя бы 1 фото) - Прочее описание (желательно) - Цена (обязательно) - Контакты (желательно) - Кто? (Автор объявления - Владелец/Риэлтор) (обязательно) * Все вышеуказанные пункты обязательны, объявления, не содержащие данную информацию могут быть удалены. 3. Запрещено размещение не тематических публикаций, не связанных с тематикой группы. Пользователи, нарушившие данное правило, будут предупреждены, далее, при повторном нарушении – удалены. 4. Запрещено размещать одно и тоже объявление несколько раз. 5. Разрешено одно поднятие объявления в неделю. 6. Запрещено размещение сторонних ссылок в объявлении и в комментариях к нему. 7. Запрещено использование ненормативной лексики в группе. Только вежливое и уважительное отношение друг к другу. 8. При изменении условий/продажи/отмены, просим участников своевременно изменять/удалять свои объявления. -Администрация группы не несет ответственность за достоверную и полную информацию, предоставляемую участником. -Жалобы и претензии на размещенную участниками объявления, можете отметить в правом верхнем углу поста! Более 3 жалоб на участника/объявление, рассматривается дальнейшее участие в группе нарушителя. </t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Нет данных</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Доска обьявлений Ташкент</t>
+          <t>Торговая Площадка / Купля - Продажа (Ташкент)</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1435443223375797/</t>
+          <t>https://www.facebook.com/groups/165761857103576/</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Участники: 26 тыс.</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПРАВИЛА ГРУППЫ 1. В группе нужно вести себя уважительно ко всем участникам. Запрещены оскорбления и угрозы в адрес участников группы, ненормативная лексика. Также комментарии, унижающие человеческое достоинство. 2. Строго запрещен расизм, религиозные и политические высказывания. 3. Запрещены сообщения, не относящиеся к содержанию статьи или к контексту обсуждения, спам. 6. Нельзя обсуждать в негативной форме любых работников государственных учреждений, зарплату, другие денежные компенсации персонала и т.д. 7. Нельзя создавать конфликтные посты. Авторы будут удалятся без предупреждения. В случаях несоблюдения участниками правил, администрация имеет право удалять сообщения, посты и самих участников по своему усмотрению, без предупреждения. Действия модераторов не обсуждаются иным образом, кроме как в личной переписке. Администрация вправе изменять правила без предупреждения и на свое усмотрение. АДМИНИСТРАЦИЯ ГРУППЫ НЕ НЕСЕТ ОТВЕТСТВЕННОСТИ ЗА ПОСТЫ, ИНФОРМАЦИЮ, КОММЕНТАРИИ ОТ УЧАСТНИКОВ ГРУППЫ </t>
+          <t>Участники: 25 тыс.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Группа для жителей Ташкента / Продажа / Покупка / Обмен / Даром и.тд </t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
         <is>
           <t>10+ публикаций в день</t>
         </is>
@@ -2704,270 +3124,448 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Недвижимость в Ташкенте</t>
+          <t>Аренда сдать и снять квартиру!Купля продажа квартир в Ташкенте и Ташкентско</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/329294340843042/</t>
+          <t>https://www.facebook.com/groups/1257554961248467/</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Участники: 2,3 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 390</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Сдать, снять, купить, продать квартиру, дом и любую недвижимость в Ташкенте и Ташкентской области!!</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Job in Tashkent</t>
+          <t>Куплю/Продам (Ташкент)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/jobtash/</t>
+          <t>https://www.facebook.com/groups/449559018565422/</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Участники: 875</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Publication of vacancies will allow you to get unlimited number of responses from the interested specialists with detailed resume, motivational and recommendatory letters</t>
+          <t>Участники: 104 тыс.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 6</t>
+          <t xml:space="preserve">ЧИТАЕМ ПРАВИЛА! Добро пожаловать! Группа предназначена для пользователей, которые хотели бы сделать объявления о купле / продаже. Обязательно указывайте ОПИСАНИЕ ТОВАРА, СОСТОЯНИЕ-НОВОЕ ИЛИ Б\У, ЦЕНУ и ВАШИ КОНТАКТЫ! Это обязательное условие! ЗАПРЕЩЕНО: Объявления риэлторов, агентов недвижимости. Разрешены объявления только собственникам недвижимости Медикаментов Увеличители/уменьшители интимных частей тела, а также аксессуаров к ним Различного барахла Размещение одинаковых или однообразных объявлений и поднятие его (up) более одного раза в неделю. (Администрация группы с легкостью может отследить и просмотреть как количество так и содержание объявлений каждого участника и соответственно заблокировать нарушителя) Реклама других торговых групп или торговых сайтов. Несоответствующие торговой группе объявления Объявления, не соответствующие данным правилам будут удаляться вместе с автором. Неэтичные выражения, неуважительное отношение к участникам группы, несоответствующие группе объявления, попытки дискредитировать предлагаемые услуги и товары будут приводиться к удалению участника из группы! </t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ташкент - СНОС</t>
+          <t>Цветофор.уз - цветы в Ташкенте.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/328799110874813/</t>
+          <t>https://www.facebook.com/groups/cvetoforuz/</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Участники: 27 тыс.</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Эта группа создаётся для взаимообразного информирования жителей тех районов города, которые всякими правительственными решениями попадают под снос. Давайте делиться информацией о том, как происходит выселение, как обеспечиваются положения Конституции и других законов Республики Узбекистан. Давайте поможем друг другу защитить свои права! Просьба писать по делу и не засорять группу продажными предложениями и всякими шуточками, не относящимися к теме данной группы. Запрещается публиковать материал, способный посеять межнациональную, межконфессиональную и межгендерную рознь.</t>
+          <t>Участники: 685</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>9 публикаций в день</t>
+          <t>Цветофор.уз - онлайн интернет магазин цветов в Ташкенте Заказывайте на сайте - www.cvetofor.uz</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3 публикации в неделю</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ташкент</t>
+          <t>ДОМАШНИЕ ТОРТЫ В ТАШКЕНТЕ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1650651238409439/</t>
+          <t>https://www.facebook.com/groups/138886473392289/</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Участники: 646</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 2,5 тыс.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Эту группу я создала спантанно,просто устала всем отвечать на вопрос: -Кто печет вкусные и красивые торты? Так вот друзья мои талантливые кондитеры и любители печь!Давайте поможем людям в их выборе! Выставляйте свои фото с контактами,я думаю,что конкуренции быть не может,ведь у каждой свой неповторимый стиль и на каждого свой клиент!Мне очень хочется,чтоб вы поддержали мою идею!Всем спасибо!</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Публикаций в месяц: 2</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tashkent University of Information Technologies</t>
+          <t>КОМУ ЗА 50 ТАШКЕНТ.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/intatu/</t>
+          <t>https://www.facebook.com/groups/981401592046637/</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Участники: 70</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Участники: 6,4 тыс.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Нет данных</t>
+          <t>Мы - люди, родившиеся и жившие, как оказалось, в весьма неоднозначном прошлом, живущие в не всегда понятном настоящем, очень беспокоящиеся, как наши дети и внуки будут жить в совершенно непонятном будущем. Группа создана для общения не совсем молодых. Нам не всегда интересны темы молодежи, мы в этих темах чужие и чуждые: Мы любим другие книги и другое кино; Мы понимаем все по-другому; Нам хочется общаться, но в молодежной среде мы не будем поняты, скорее всего. Или будем поняты превратно. Мы ранимы. Просим это учесть. Мы рады общаться с молодежью, с людьми всех поколений - мы рады общению! ВНИМАНИЕ! 1. На сайте нет места национальной и межконфессиональной розни и фанатизму! 2. Бизнес не предлагать! 3. Рекламе здесь не место! 4. Не разрешается выставлять ссылки на собственные ресурсы. 5. Выяснения отношений в темах запрещены! ВСЕ РАЗБОРКИ - В ЛИЧКЕ!</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Работа в Ташкенте</t>
+          <t>Потерялись-Найдены г. Ташкент</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/1251840781857978/</t>
+          <t>https://www.facebook.com/groups/373637962829247/</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Участники: 843</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Стань на шаг ближе к своей мечте!</t>
+          <t>Участники: 5,7 тыс.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Публикаций в месяц: 8</t>
+          <t xml:space="preserve">ПРАВИЛА ГРУППЫ! Группа создана для потерявшихся животных г.Ташкента! Ознакомьтесь пожалуйста с правилами, они просты и понятны! • Правильное составление публикации (качественное фото, чёткое описание животного) • Комментарии должны относиться только к обсуждаемой теме и по существу. • Соблюдение правил элементарной вежливости. Не разрешается использовать ненормативную лексику, намеки на нее и другие оскорбления (в том числе, связанные с национальной и религиозной принадлежностью). Все комментарии, содержащие оскорбления в любой форме будут безжалостно удаляться. • Не разрешается публиковать информацию, содержащую коммерческую рекламу, ссылки на другие веб-сайты, а также материалы, содержащие эротику или порнографию. •Запрещается выставлять посты о покупке или продаже животного! •Запрещается выставлять посты о пропаже каких-либо вещей. •Запрещается выставлять посты о пропаже людей, за исключением людей, пропавших в городе Ташкенте. •Запрещается выставлять посты о пропаже животных за пределами Узбекистана! •Запрещается выставлять посты о помощи животным и о их пристройстве. Для этого у нас есть отдельная группа! https://www.facebook.com/groups/vsevtvoihrukah/ Администрация оставляет за собой право удалять неприемлемые комментарии, а так же злостных нарушителей! </t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rent a flat, appartment or house in Tashkent ( Expats )</t>
+          <t>"Четыре лапы" Ташкент Приют</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/322911838197722/</t>
+          <t>https://www.facebook.com/groups/www.instagram.comfourpawstashkent/</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Участники: 218</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>You can find your ideal appartment or post your appartment for rent or sale here</t>
+          <t>Участники: 5,5 тыс.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Публикаций в год: 20</t>
+          <t>Добро пожаловать! Давайте знакомиться)) Данная группа создана для помощи бездомным животным, которыми занимаются Вика и Андрей (некоторые уже знакомы с ними и знают их, как Вика и Андрей "узбум"), а также их дочки, старшую из которых зовут Кристина. На данный момент у них около 600 собак, также бывают и котята. Количество животных все время меняется, так как одни пристраиваются, а на их место всегда есть очередной выкинутый/брошенный кем-то на улицу. Всем кто хочет помочь семье в их благом деле будем благодарны.  Наш номер для связи +998903552453 Андрей и Вика, +998909603583 Кристина. Реквизиты для помощи: Uzкарт 8600332961414921 на имя Д.Андрей Uzкарт 8600560436047781 на имя Ж.Тамара Сбербанк 5228 6005 7617 5311 на имя Д.Кристины Visa 4790 9122 1095 6332 на имя Д.Кристины PS если Вам нетрудно, добавьте пожалуйста помощь приюту Ташкент или просто Ташкент #хвостики #собачки #помощь #приют #благотворительность #щенки #приютдляживотных #милосердие #приютдлябезнадзорныхживотных #приютчетырелапы #возьмиживотноеизприюта #непокупайвозьмиизприюта #потеряшка #мыждёмтебя #мойлюбимыйхозяин #собакадругчеловека #приютдлясобак #приютинепокупай #приютите #приютидруга #приютские #приюты #природа #природамать #узбекистанпротивубийстваживотных #узбекистанужесточизакон #животныедолжныжить #милосердие #доброта #терпимость #animals</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>UJUAC Tashkent</t>
+          <t>Няни и домашний персонал, города Ташкента.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/965731243443393/</t>
+          <t>https://www.facebook.com/groups/Nyanya.uz/</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Участники: 311</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Уважаемые Бывшие студенты и стажеры японских ВУЗов, наш клуб UJUAC (Uzbekistan Japan Universities Alumni Club) теперь и на Facebook!!! Наша цель собрать всех студентов японских ВУЗов которые, вернулись в родной Узбекистан. </t>
+          <t>Участники: 26 тыс.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Публикаций в год: 10</t>
+          <t xml:space="preserve"> °Вам не с кем оставить своего малыша! °Вы много работаете и не успеваете содержать дом в чистоте. °Вам срочно понадобился профессиональный уход за пожилым или больным родственником. °Вы предоставляете услуги сиделки, няни, домработницы и.т.д Группа  создана в помощь тем, кто ищет домашний персонал для себя, своих родных и близких. И для тех, кто предлагает свои услуги. Поиск домашнего персонала без посредников! Теперь наш канал и в телеграмме https://t.me/moya_nyanyauz Если Вы ищете няню или если Вы являетесь соискателем на должность няни - Вы можете оставить свое сообщение ("ищу няню...") в нашей группе или свое резюме ..."("няня ищет работу"). Надеемся, каждый работодатель встретит именно свою няню ,а каждая няня найдет свою семью, в которой работать будет приятно и интересно. Уважаемые друзья ! Правила: 1)Не размещать повторные объявления , поднимать свои объявления один раз в три дня!!! Злостные нарушители будут удаляться без предупреждения! 2)Запрещается реклама сторонних ресурсов!В том числе ссылки на другие группы.(бан без предупреждения) 3)За мат,оскорбления бан! 4)Чёрный список! (Реклама данного агентства будет удаляться вместе с участником группы без предупреждения) Агентство -Вячеслава Зазулькина. 5)За спам ссылки не касающийся контента группы,бан!</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3 публикации в день</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>TASHKENT DRIVE</t>
+          <t>ПРИВЕТ ТАШКЕНТ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/tashkent.drive/</t>
+          <t>https://www.facebook.com/groups/365955758288334/</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Участники: 597</t>
+          <t xml:space="preserve">Общедоступная группа </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>УВАЖАЕМЫЕ ВОДИТЕЛИ УЧАСТНИКИ ГРУППЫ ‼TASHKENT DRIVE‼ ПРОСИМ СОБЛЮДАТЬ НАШИ ПРАВИЛА 1⃣ Пожалуйста, пишите только ПО ТЕМЕ❗↙ ( Новых правилах, таблиц штрафов, пробки,новости о дорожных ситуациях, ПДД, продажа-покупка авто, тюнинг, ДТП и так далее, всё что касается авто. и дорожных ситуаций)‼ 2⃣ УДАЛЯЕМ автора фото, и видео ПОРНОГРАФИЧЕСКОГО содержания❗ 3⃣ ЗАПРЕЩАЕТСЯ: выставлять фото и видео нецензурного содержания, с жертвами ДТП, а так же фото НЕ ПО ТЕМЕ; использовать МАТ и ВСЯКИЕ РУГАТЕЛЬСТВА (так же сокращения; ппц, хз и т.п)❗ 4⃣ Девушки: если кто-то ПРИСТАЕТ из группы, не мучаемся❗А делаем скрин его сообщений, и отправить в ЛС админам❗ Удаляем участника БЕЗ ПРЕДУПРЕЖДЕНИЯ❗ 5⃣ ЗАПРЕЩАЕТСЯ ЛЮБАЯ ИНФОРМАЦИЯ ПОЛИТИЧЕСКОГО, И РЕЛИГИОЗНОГО ХАРАКТЕРА❗ ❗При нарушении одного из правил, будет удален из группы на 6 - 24 часа ( Или на более долгий срок ) Добавили друга, отправьте сразу правила ему, за нарушение вышеизложенных правил удаление с группы❗ Уважайте Друг Друга На Дорогах! Все Мы Участники Дорожного Движения и на Мерсе и на Москвиче! С Уважением Администрация группы! Амаль, @umarov_01 Денис (@Denis_973)</t>
+          <t>Участники: 1 тыс.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Публикаций в год: 10</t>
+          <t xml:space="preserve"> ПРИСОЕДИНЯЙСЯ!!! МЫ ЖДЁМ ТЕБЯ!!! ПОДЕЛИСЬ ГРУППОЙ!!! ПРИГЛАШАЙ ДРУЗЕЙ!!! ВЫКЛАДЫВАЙ ПОСТЫ!!! СТАВЬ ЛАЙКИ!!! ОСТАВЛЯЙ КОММЕНТАРИИ!!! ПОДДЕРЖИ ГРУППУ!!! МЫ ВМЕСТЕ 🤗🤗🤗 ВСЕМ ЗДОРОВЬЯ!!! Группа посвящена на разные темы. В данной группе можно делиться любой информацией в рамках закона. Группа разносторонняя. Так что выкладывайте любые посты. Главное ни кого не оскорблять, не материться, не выкладывать то что не законно. ВСЁ ДОЛЖНО БЫТЬ В РАМКАХ ЗАКОНА. </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>‘Mericans In Tashkent</t>
+          <t>Торгуем здесь!(Ташкент)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/groups/154439415186322/</t>
+          <t>https://www.facebook.com/groups/1681871045378878/</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Участники: 61</t>
+          <t xml:space="preserve">Закрытая группа </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>Участники: 64 тыс.</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>ОНЛАЙН МАГАЗИН для тех,кто хочет продать или купить что либо!Всем удачи!</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>10+ публикаций в день</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Знакомства и связи в Ташкенте</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/znakomstvavtashkente/</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Закрытая группа </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Участники: 17 тыс.</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Добавляемся. Ищем. Находим. Знакомимся. Матом не ругаемся. Друг друга уважаем. Рекламу без разрешения не размещаем!!! Удачи! </t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8 публикаций в неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ВЗАИМОПОМОЩЬ2🤲ТАШКЕНТ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/1155410188163719/</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Общедоступная группа </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Участники: 2,4 тыс.</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>ГРУППА ПОМОЩИ МАЛОИМУЩИМ СЕМЬЯМ, В КОТОРЫХ НЕТ КОРМИЛЬЦА, ИНВАЛИДАМ, ОДИНОКИМ ПОЖИЛЫМ ЛЮДЯМ, БОЛЬНЫМ ДЕТЯМ И СИРОТАМ</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3 публикации в неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Отзывы о врачах и рекомендации (Ташкент)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/291618744628818/</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Закрытая группа </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Участники: 11 тыс.</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Добро пожаловать в нашу группу! Здесь вы можете оставлять положительные и отрицательные отзывы о врачах, давать и получать рекомендации медицинских работников, лабораторий, клиник и других медицинских учреждений. Также, приветствуются посты, направленные на поиск любого врача или медицинского учреждения с удобным месторасположением и ценовой политикой. ПРАВИЛА ГРУППЫ. Что можно в группе? 1)	Давать отзывы/рекомендации врачей или медицинских учреждений. Отзывы должны быть максимально подробными, с описанием ситуации, с указанием ФИО и профиля врача, место работы и прочее. 2)	Запрашивать отзывы/рекомендации врачей или медицинских учреждений. 3)	Задавать вопросы, направленные на поиск врача по профилю или медицинского учреждения. Что нельзя в группе? 1.	Запрещены посты и комментарии, нарушающие Законодательство Республики Узбекистан. 2.	Мат и оскорбления участников группы, работников медицинских учреждений. Критика должна быть максимально корректной и обоснованной. 3.	Обсуждать цены за прием того или иного врача, если это не предписано самим медицинским учреждением (суинчи, вознаграждения и так далее). 4.	Запрещено публиковать посты и комментарии, не соответствующие тематике группы, а также реклама. 5.	Запрещается выяснять отношения между участниками, переходить на личности, а также осуждать выбор участника. Администраторы группы Анастасия Вьюнник и Анна Селезнева. Администраторы группы оставляют за собой право удаление поста, комментария или участника группы, нарушившего правила, без предупреждения. А также, администраторы имеют право вносить изменения в Правила группы. Желаем приятного и полезного времяпрепровождения! </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>9 публикаций в неделю</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ЗНАКОМСТВА В ТАШКЕНТЕ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/groups/3607447122639195/</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Общедоступная группа </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Участники: 6,2 тыс.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>Нет данных</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Нет данных</t>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>10 публикаций в день</t>
         </is>
       </c>
     </row>
